--- a/src/main/poketcg/PokeTCG.xlsx
+++ b/src/main/poketcg/PokeTCG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="English Sets" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Japanese Sets" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Promo" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ENsets" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="JPsets" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="promo" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6892,9 +6892,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -6977,7 +6978,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6990,7 +6991,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6998,20 +6999,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -7205,7 +7198,7 @@
   </sheetPr>
   <dimension ref="A1:E1208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1209" activeCellId="0" sqref="A1209"/>
     </sheetView>
   </sheetViews>
@@ -15975,1670 +15968,1670 @@
       </c>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="2" t="s">
+      <c r="A698" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="B698" s="0" t="s">
+      <c r="B698" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D698" s="0" t="n">
+      <c r="D698" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="2"/>
-      <c r="B699" s="0" t="s">
+      <c r="A699" s="4"/>
+      <c r="B699" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D699" s="0" t="n">
+      <c r="D699" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="2"/>
-      <c r="B700" s="0" t="s">
+      <c r="A700" s="4"/>
+      <c r="B700" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D700" s="0" t="n">
+      <c r="D700" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="2"/>
-      <c r="B701" s="0" t="s">
+      <c r="A701" s="4"/>
+      <c r="B701" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D701" s="0" t="n">
+      <c r="D701" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="2"/>
-      <c r="B702" s="0" t="s">
+      <c r="A702" s="4"/>
+      <c r="B702" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D702" s="0" t="n">
+      <c r="D702" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="2"/>
-      <c r="B703" s="0" t="s">
+      <c r="A703" s="4"/>
+      <c r="B703" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D703" s="0" t="n">
+      <c r="D703" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="2"/>
-      <c r="B704" s="0" t="s">
+      <c r="A704" s="4"/>
+      <c r="B704" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D704" s="0" t="n">
+      <c r="D704" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="2"/>
-      <c r="B705" s="0" t="s">
+      <c r="A705" s="4"/>
+      <c r="B705" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="D705" s="0" t="n">
+      <c r="D705" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="2"/>
-      <c r="B706" s="0" t="s">
+      <c r="A706" s="4"/>
+      <c r="B706" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="D706" s="0" t="n">
+      <c r="D706" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="2"/>
-      <c r="B707" s="0" t="s">
+      <c r="A707" s="4"/>
+      <c r="B707" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D707" s="0" t="n">
+      <c r="D707" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="2"/>
-      <c r="B708" s="0" t="s">
+      <c r="A708" s="4"/>
+      <c r="B708" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D708" s="0" t="n">
+      <c r="D708" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="2"/>
-      <c r="B709" s="0" t="s">
+      <c r="A709" s="4"/>
+      <c r="B709" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="D709" s="0" t="n">
+      <c r="D709" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="2"/>
-      <c r="B710" s="0" t="s">
+      <c r="A710" s="4"/>
+      <c r="B710" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D710" s="0" t="n">
+      <c r="D710" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="2"/>
-      <c r="B711" s="0" t="s">
+      <c r="A711" s="4"/>
+      <c r="B711" s="1" t="s">
         <v>1346</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D711" s="0" t="n">
+      <c r="D711" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="2"/>
-      <c r="B712" s="0" t="s">
+      <c r="A712" s="4"/>
+      <c r="B712" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D712" s="0" t="n">
+      <c r="D712" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="2"/>
-      <c r="B713" s="0" t="s">
+      <c r="A713" s="4"/>
+      <c r="B713" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D713" s="0" t="n">
+      <c r="D713" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="2"/>
-      <c r="B714" s="0" t="s">
+      <c r="A714" s="4"/>
+      <c r="B714" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="D714" s="0" t="n">
+      <c r="D714" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="2"/>
-      <c r="B715" s="0" t="s">
+      <c r="A715" s="4"/>
+      <c r="B715" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="D715" s="0" t="n">
+      <c r="D715" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="2"/>
-      <c r="B716" s="0" t="s">
+      <c r="A716" s="4"/>
+      <c r="B716" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="D716" s="0" t="n">
+      <c r="D716" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="2"/>
-      <c r="B717" s="0" t="s">
+      <c r="A717" s="4"/>
+      <c r="B717" s="1" t="s">
         <v>1356</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D717" s="0" t="n">
+      <c r="D717" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="2"/>
-      <c r="B718" s="0" t="s">
+      <c r="A718" s="4"/>
+      <c r="B718" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D718" s="0" t="n">
+      <c r="D718" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="2"/>
-      <c r="B719" s="0" t="s">
+      <c r="A719" s="4"/>
+      <c r="B719" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="D719" s="0" t="n">
+      <c r="D719" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="2"/>
-      <c r="B720" s="0" t="s">
+      <c r="A720" s="4"/>
+      <c r="B720" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D720" s="0" t="n">
+      <c r="D720" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="2"/>
-      <c r="B721" s="0" t="s">
+      <c r="A721" s="4"/>
+      <c r="B721" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D721" s="0" t="n">
+      <c r="D721" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="2"/>
-      <c r="B722" s="0" t="s">
+      <c r="A722" s="4"/>
+      <c r="B722" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D722" s="0" t="n">
+      <c r="D722" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="2"/>
-      <c r="B723" s="0" t="s">
+      <c r="A723" s="4"/>
+      <c r="B723" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="D723" s="0" t="n">
+      <c r="D723" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="2"/>
-      <c r="B724" s="0" t="s">
+      <c r="A724" s="4"/>
+      <c r="B724" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D724" s="0" t="n">
+      <c r="D724" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="2"/>
-      <c r="B725" s="0" t="s">
+      <c r="A725" s="4"/>
+      <c r="B725" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D725" s="0" t="n">
+      <c r="D725" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="2"/>
-      <c r="B726" s="0" t="s">
+      <c r="A726" s="4"/>
+      <c r="B726" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D726" s="0" t="n">
+      <c r="D726" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="2"/>
-      <c r="B727" s="0" t="s">
+      <c r="A727" s="4"/>
+      <c r="B727" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D727" s="0" t="n">
+      <c r="D727" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="2"/>
-      <c r="B728" s="0" t="s">
+      <c r="A728" s="4"/>
+      <c r="B728" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D728" s="0" t="n">
+      <c r="D728" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="2"/>
-      <c r="B729" s="0" t="s">
+      <c r="A729" s="4"/>
+      <c r="B729" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="D729" s="0" t="n">
+      <c r="D729" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="2"/>
-      <c r="B730" s="0" t="s">
+      <c r="A730" s="4"/>
+      <c r="B730" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="D730" s="0" t="n">
+      <c r="D730" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="2"/>
-      <c r="B731" s="0" t="s">
+      <c r="A731" s="4"/>
+      <c r="B731" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="D731" s="0" t="n">
+      <c r="D731" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="2"/>
-      <c r="B732" s="0" t="s">
+      <c r="A732" s="4"/>
+      <c r="B732" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="D732" s="0" t="n">
+      <c r="D732" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="2"/>
-      <c r="B733" s="0" t="s">
+      <c r="A733" s="4"/>
+      <c r="B733" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D733" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E733" s="0" t="n">
+      <c r="D733" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E733" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="2"/>
-      <c r="B734" s="0" t="s">
+      <c r="A734" s="4"/>
+      <c r="B734" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="D734" s="0" t="n">
+      <c r="D734" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="2"/>
-      <c r="B735" s="0" t="s">
+      <c r="A735" s="4"/>
+      <c r="B735" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="D735" s="0" t="n">
+      <c r="D735" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="2"/>
-      <c r="B736" s="0" t="s">
+      <c r="A736" s="4"/>
+      <c r="B736" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="D736" s="0" t="n">
+      <c r="D736" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="2" t="s">
+      <c r="A737" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="B737" s="0" t="s">
+      <c r="B737" s="1" t="s">
         <v>1395</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D737" s="0" t="n">
+      <c r="D737" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="2"/>
-      <c r="B738" s="0" t="s">
+      <c r="A738" s="4"/>
+      <c r="B738" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="D738" s="0" t="n">
+      <c r="D738" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="2"/>
-      <c r="B739" s="0" t="s">
+      <c r="A739" s="4"/>
+      <c r="B739" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D739" s="0" t="n">
+      <c r="D739" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="2"/>
-      <c r="B740" s="0" t="s">
+      <c r="A740" s="4"/>
+      <c r="B740" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D740" s="0" t="n">
+      <c r="D740" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="2"/>
-      <c r="B741" s="0" t="s">
+      <c r="A741" s="4"/>
+      <c r="B741" s="1" t="s">
         <v>1401</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D741" s="0" t="n">
+      <c r="D741" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="2"/>
-      <c r="B742" s="0" t="s">
+      <c r="A742" s="4"/>
+      <c r="B742" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D742" s="0" t="n">
+      <c r="D742" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="2"/>
-      <c r="B743" s="0" t="s">
+      <c r="A743" s="4"/>
+      <c r="B743" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="D743" s="0" t="n">
+      <c r="D743" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="2"/>
-      <c r="B744" s="0" t="s">
+      <c r="A744" s="4"/>
+      <c r="B744" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D744" s="0" t="n">
+      <c r="D744" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="2"/>
-      <c r="B745" s="0" t="s">
+      <c r="A745" s="4"/>
+      <c r="B745" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="D745" s="0" t="n">
+      <c r="D745" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="2"/>
-      <c r="B746" s="0" t="s">
+      <c r="A746" s="4"/>
+      <c r="B746" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="D746" s="0" t="n">
+      <c r="D746" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="2"/>
-      <c r="B747" s="0" t="s">
+      <c r="A747" s="4"/>
+      <c r="B747" s="1" t="s">
         <v>1413</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="D747" s="0" t="n">
+      <c r="D747" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="2"/>
-      <c r="B748" s="0" t="s">
+      <c r="A748" s="4"/>
+      <c r="B748" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="D748" s="0" t="n">
+      <c r="D748" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="2"/>
-      <c r="B749" s="0" t="s">
+      <c r="A749" s="4"/>
+      <c r="B749" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D749" s="0" t="n">
+      <c r="D749" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="2"/>
-      <c r="B750" s="0" t="s">
+      <c r="A750" s="4"/>
+      <c r="B750" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="D750" s="0" t="n">
+      <c r="D750" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="2"/>
-      <c r="B751" s="0" t="s">
+      <c r="A751" s="4"/>
+      <c r="B751" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D751" s="0" t="n">
+      <c r="D751" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="2"/>
-      <c r="B752" s="0" t="s">
+      <c r="A752" s="4"/>
+      <c r="B752" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D752" s="0" t="n">
+      <c r="D752" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="2"/>
-      <c r="B753" s="0" t="s">
+      <c r="A753" s="4"/>
+      <c r="B753" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="D753" s="0" t="n">
+      <c r="D753" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="2"/>
-      <c r="B754" s="0" t="s">
+      <c r="A754" s="4"/>
+      <c r="B754" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D754" s="0" t="n">
+      <c r="D754" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="2"/>
-      <c r="B755" s="0" t="s">
+      <c r="A755" s="4"/>
+      <c r="B755" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="D755" s="0" t="n">
+      <c r="D755" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="2"/>
-      <c r="B756" s="0" t="s">
+      <c r="A756" s="4"/>
+      <c r="B756" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="D756" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E756" s="0" t="n">
+      <c r="D756" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E756" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="2"/>
-      <c r="B757" s="0" t="s">
+      <c r="A757" s="4"/>
+      <c r="B757" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="D757" s="0" t="n">
+      <c r="D757" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="2"/>
-      <c r="B758" s="0" t="s">
+      <c r="A758" s="4"/>
+      <c r="B758" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="D758" s="0" t="n">
+      <c r="D758" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="2"/>
-      <c r="B759" s="0" t="s">
+      <c r="A759" s="4"/>
+      <c r="B759" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="D759" s="0" t="n">
+      <c r="D759" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="2"/>
-      <c r="B760" s="0" t="s">
+      <c r="A760" s="4"/>
+      <c r="B760" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="D760" s="0" t="n">
+      <c r="D760" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="2"/>
-      <c r="B761" s="0" t="s">
+      <c r="A761" s="4"/>
+      <c r="B761" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D761" s="0" t="n">
+      <c r="D761" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="2"/>
-      <c r="B762" s="0" t="s">
+      <c r="A762" s="4"/>
+      <c r="B762" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D762" s="0" t="n">
+      <c r="D762" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="2"/>
-      <c r="B763" s="0" t="s">
+      <c r="A763" s="4"/>
+      <c r="B763" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="D763" s="0" t="n">
+      <c r="D763" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="2"/>
-      <c r="B764" s="0" t="s">
+      <c r="A764" s="4"/>
+      <c r="B764" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D764" s="0" t="n">
+      <c r="D764" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="2"/>
-      <c r="B765" s="0" t="s">
+      <c r="A765" s="4"/>
+      <c r="B765" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="D765" s="0" t="n">
+      <c r="D765" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="2"/>
-      <c r="B766" s="0" t="s">
+      <c r="A766" s="4"/>
+      <c r="B766" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D766" s="0" t="n">
+      <c r="D766" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="2" t="s">
+      <c r="A767" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="B767" s="0" t="s">
+      <c r="B767" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D767" s="0" t="n">
+      <c r="D767" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="2"/>
-      <c r="B768" s="0" t="s">
+      <c r="A768" s="4"/>
+      <c r="B768" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="D768" s="0" t="n">
+      <c r="D768" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="2"/>
-      <c r="B769" s="0" t="s">
+      <c r="A769" s="4"/>
+      <c r="B769" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="D769" s="0" t="n">
+      <c r="D769" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="2"/>
-      <c r="B770" s="0" t="s">
+      <c r="A770" s="4"/>
+      <c r="B770" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="D770" s="0" t="n">
+      <c r="D770" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="2"/>
-      <c r="B771" s="0" t="s">
+      <c r="A771" s="4"/>
+      <c r="B771" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D771" s="0" t="n">
+      <c r="D771" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="2"/>
-      <c r="B772" s="0" t="s">
+      <c r="A772" s="4"/>
+      <c r="B772" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="D772" s="0" t="n">
+      <c r="D772" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="2"/>
-      <c r="B773" s="0" t="s">
+      <c r="A773" s="4"/>
+      <c r="B773" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="D773" s="0" t="n">
+      <c r="D773" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="2"/>
-      <c r="B774" s="0" t="s">
+      <c r="A774" s="4"/>
+      <c r="B774" s="1" t="s">
         <v>1461</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D774" s="0" t="n">
+      <c r="D774" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="2"/>
-      <c r="B775" s="0" t="s">
+      <c r="A775" s="4"/>
+      <c r="B775" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="D775" s="0" t="n">
+      <c r="D775" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="2"/>
-      <c r="B776" s="0" t="s">
+      <c r="A776" s="4"/>
+      <c r="B776" s="1" t="s">
         <v>1464</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D776" s="0" t="n">
+      <c r="D776" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="2"/>
-      <c r="B777" s="0" t="s">
+      <c r="A777" s="4"/>
+      <c r="B777" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="D777" s="0" t="n">
+      <c r="D777" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="2"/>
-      <c r="B778" s="0" t="s">
+      <c r="A778" s="4"/>
+      <c r="B778" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D778" s="0" t="n">
+      <c r="D778" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="2"/>
-      <c r="B779" s="0" t="s">
+      <c r="A779" s="4"/>
+      <c r="B779" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="D779" s="0" t="n">
+      <c r="D779" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="2"/>
-      <c r="B780" s="0" t="s">
+      <c r="A780" s="4"/>
+      <c r="B780" s="1" t="s">
         <v>1470</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="D780" s="0" t="n">
+      <c r="D780" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="2"/>
-      <c r="B781" s="0" t="s">
+      <c r="A781" s="4"/>
+      <c r="B781" s="1" t="s">
         <v>1472</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="D781" s="0" t="n">
+      <c r="D781" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="2"/>
-      <c r="B782" s="0" t="s">
+      <c r="A782" s="4"/>
+      <c r="B782" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D782" s="0" t="n">
+      <c r="D782" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="2"/>
-      <c r="B783" s="0" t="s">
+      <c r="A783" s="4"/>
+      <c r="B783" s="1" t="s">
         <v>1475</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="D783" s="0" t="n">
+      <c r="D783" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="2"/>
-      <c r="B784" s="0" t="s">
+      <c r="A784" s="4"/>
+      <c r="B784" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="D784" s="0" t="n">
+      <c r="D784" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="2"/>
-      <c r="B785" s="0" t="s">
+      <c r="A785" s="4"/>
+      <c r="B785" s="1" t="s">
         <v>1479</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D785" s="0" t="n">
+      <c r="D785" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="2"/>
-      <c r="B786" s="0" t="s">
+      <c r="A786" s="4"/>
+      <c r="B786" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D786" s="0" t="n">
+      <c r="D786" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="2"/>
-      <c r="B787" s="0" t="s">
+      <c r="A787" s="4"/>
+      <c r="B787" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="D787" s="0" t="n">
+      <c r="D787" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="2"/>
-      <c r="B788" s="0" t="s">
+      <c r="A788" s="4"/>
+      <c r="B788" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="D788" s="0" t="n">
+      <c r="D788" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="2"/>
-      <c r="B789" s="0" t="s">
+      <c r="A789" s="4"/>
+      <c r="B789" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D789" s="0" t="n">
+      <c r="D789" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="2"/>
-      <c r="B790" s="0" t="s">
+      <c r="A790" s="4"/>
+      <c r="B790" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D790" s="0" t="n">
+      <c r="D790" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="2"/>
-      <c r="B791" s="0" t="s">
+      <c r="A791" s="4"/>
+      <c r="B791" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D791" s="0" t="n">
+      <c r="D791" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="2"/>
-      <c r="B792" s="0" t="s">
+      <c r="A792" s="4"/>
+      <c r="B792" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D792" s="0" t="n">
+      <c r="D792" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="2"/>
-      <c r="B793" s="0" t="s">
+      <c r="A793" s="4"/>
+      <c r="B793" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D793" s="0" t="n">
+      <c r="D793" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="2"/>
-      <c r="B794" s="0" t="s">
+      <c r="A794" s="4"/>
+      <c r="B794" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D794" s="0" t="n">
+      <c r="D794" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="2"/>
-      <c r="B795" s="0" t="s">
+      <c r="A795" s="4"/>
+      <c r="B795" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D795" s="0" t="n">
+      <c r="D795" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="2"/>
-      <c r="B796" s="0" t="s">
+      <c r="A796" s="4"/>
+      <c r="B796" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D796" s="0" t="n">
+      <c r="D796" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="2"/>
-      <c r="B797" s="0" t="s">
+      <c r="A797" s="4"/>
+      <c r="B797" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D797" s="0" t="n">
+      <c r="D797" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="2"/>
-      <c r="B798" s="0" t="s">
+      <c r="A798" s="4"/>
+      <c r="B798" s="1" t="s">
         <v>1496</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D798" s="0" t="n">
+      <c r="D798" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="2"/>
-      <c r="B799" s="0" t="s">
+      <c r="A799" s="4"/>
+      <c r="B799" s="1" t="s">
         <v>1497</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D799" s="0" t="n">
+      <c r="D799" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="2"/>
-      <c r="B800" s="0" t="s">
+      <c r="A800" s="4"/>
+      <c r="B800" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="D800" s="0" t="n">
+      <c r="D800" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="2"/>
-      <c r="B801" s="0" t="s">
+      <c r="A801" s="4"/>
+      <c r="B801" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="D801" s="0" t="n">
+      <c r="D801" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="2"/>
-      <c r="B802" s="0" t="s">
+      <c r="A802" s="4"/>
+      <c r="B802" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="D802" s="0" t="n">
+      <c r="D802" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="2"/>
-      <c r="B803" s="0" t="s">
+      <c r="A803" s="4"/>
+      <c r="B803" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="D803" s="0" t="n">
+      <c r="D803" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="2"/>
-      <c r="B804" s="0" t="s">
+      <c r="A804" s="4"/>
+      <c r="B804" s="1" t="s">
         <v>1505</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D804" s="0" t="n">
+      <c r="D804" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="2"/>
-      <c r="B805" s="0" t="s">
+      <c r="A805" s="4"/>
+      <c r="B805" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="D805" s="0" t="n">
+      <c r="D805" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="2"/>
-      <c r="B806" s="0" t="s">
+      <c r="A806" s="4"/>
+      <c r="B806" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D806" s="0" t="n">
+      <c r="D806" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="2"/>
-      <c r="B807" s="0" t="s">
+      <c r="A807" s="4"/>
+      <c r="B807" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="D807" s="0" t="n">
+      <c r="D807" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="2"/>
-      <c r="B808" s="0" t="s">
+      <c r="A808" s="4"/>
+      <c r="B808" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="D808" s="0" t="n">
+      <c r="D808" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="2"/>
-      <c r="B809" s="0" t="s">
+      <c r="A809" s="4"/>
+      <c r="B809" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D809" s="0" t="n">
+      <c r="D809" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="2"/>
-      <c r="B810" s="0" t="s">
+      <c r="A810" s="4"/>
+      <c r="B810" s="1" t="s">
         <v>1515</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D810" s="0" t="n">
+      <c r="D810" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="2"/>
-      <c r="B811" s="0" t="s">
+      <c r="A811" s="4"/>
+      <c r="B811" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D811" s="0" t="n">
+      <c r="D811" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="2"/>
-      <c r="B812" s="0" t="s">
+      <c r="A812" s="4"/>
+      <c r="B812" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D812" s="0" t="n">
+      <c r="D812" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="2"/>
-      <c r="B813" s="0" t="s">
+      <c r="A813" s="4"/>
+      <c r="B813" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="D813" s="0" t="n">
+      <c r="D813" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="2"/>
-      <c r="B814" s="0" t="s">
+      <c r="A814" s="4"/>
+      <c r="B814" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D814" s="0" t="n">
+      <c r="D814" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="2"/>
-      <c r="B815" s="0" t="s">
+      <c r="A815" s="4"/>
+      <c r="B815" s="1" t="s">
         <v>1523</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D815" s="0" t="n">
+      <c r="D815" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="2"/>
-      <c r="B816" s="0" t="s">
+      <c r="A816" s="4"/>
+      <c r="B816" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D816" s="0" t="n">
+      <c r="D816" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="2"/>
-      <c r="B817" s="0" t="s">
+      <c r="A817" s="4"/>
+      <c r="B817" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D817" s="0" t="n">
+      <c r="D817" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="2"/>
-      <c r="B818" s="0" t="s">
+      <c r="A818" s="4"/>
+      <c r="B818" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D818" s="0" t="n">
+      <c r="D818" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="2"/>
-      <c r="B819" s="0" t="s">
+      <c r="A819" s="4"/>
+      <c r="B819" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="D819" s="0" t="n">
+      <c r="D819" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="2"/>
-      <c r="B820" s="0" t="s">
+      <c r="A820" s="4"/>
+      <c r="B820" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D820" s="0" t="n">
+      <c r="D820" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="2"/>
-      <c r="B821" s="0" t="s">
+      <c r="A821" s="4"/>
+      <c r="B821" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D821" s="0" t="n">
+      <c r="D821" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="2"/>
-      <c r="B822" s="0" t="s">
+      <c r="A822" s="4"/>
+      <c r="B822" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="D822" s="0" t="n">
+      <c r="D822" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="2"/>
-      <c r="B823" s="0" t="s">
+      <c r="A823" s="4"/>
+      <c r="B823" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D823" s="0" t="n">
+      <c r="D823" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="2"/>
-      <c r="B824" s="0" t="s">
+      <c r="A824" s="4"/>
+      <c r="B824" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="D824" s="0" t="n">
+      <c r="D824" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="2"/>
-      <c r="B825" s="0" t="s">
+      <c r="A825" s="4"/>
+      <c r="B825" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D825" s="0" t="n">
+      <c r="D825" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="2"/>
-      <c r="B826" s="0" t="s">
+      <c r="A826" s="4"/>
+      <c r="B826" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D826" s="0" t="n">
+      <c r="D826" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="2"/>
-      <c r="B827" s="0" t="s">
+      <c r="A827" s="4"/>
+      <c r="B827" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D827" s="0" t="n">
+      <c r="D827" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="2"/>
-      <c r="B828" s="0" t="s">
+      <c r="A828" s="4"/>
+      <c r="B828" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D828" s="0" t="n">
+      <c r="D828" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="2"/>
-      <c r="B829" s="0" t="s">
+      <c r="A829" s="4"/>
+      <c r="B829" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D829" s="0" t="n">
+      <c r="D829" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="2"/>
-      <c r="B830" s="0" t="s">
+      <c r="A830" s="4"/>
+      <c r="B830" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="D830" s="0" t="n">
+      <c r="D830" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="2"/>
-      <c r="B831" s="0" t="s">
+      <c r="A831" s="4"/>
+      <c r="B831" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="D831" s="0" t="n">
+      <c r="D831" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="2"/>
-      <c r="B832" s="0" t="s">
+      <c r="A832" s="4"/>
+      <c r="B832" s="1" t="s">
         <v>1552</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="D832" s="0" t="n">
+      <c r="D832" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="2"/>
-      <c r="B833" s="0" t="s">
+      <c r="A833" s="4"/>
+      <c r="B833" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="D833" s="0" t="n">
+      <c r="D833" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="2"/>
-      <c r="B834" s="0" t="s">
+      <c r="A834" s="4"/>
+      <c r="B834" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="D834" s="0" t="n">
+      <c r="D834" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="2"/>
-      <c r="B835" s="0" t="s">
+      <c r="A835" s="4"/>
+      <c r="B835" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="D835" s="0" t="n">
+      <c r="D835" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17646,3250 +17639,3250 @@
       <c r="A836" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B836" s="0" t="s">
+      <c r="B836" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="E836" s="0" t="n">
+      <c r="E836" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="2" t="s">
+      <c r="A837" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="B837" s="7" t="s">
+      <c r="B837" s="5" t="s">
         <v>1564</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D837" s="0" t="s">
+      <c r="D837" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E837" s="0" t="n">
+      <c r="E837" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="2"/>
-      <c r="B838" s="7" t="s">
+      <c r="A838" s="4"/>
+      <c r="B838" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D838" s="0" t="n">
+      <c r="D838" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="2"/>
-      <c r="B839" s="7" t="s">
+      <c r="A839" s="4"/>
+      <c r="B839" s="5" t="s">
         <v>1568</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D839" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E839" s="0" t="n">
+      <c r="D839" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E839" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="2"/>
-      <c r="B840" s="7" t="s">
+      <c r="A840" s="4"/>
+      <c r="B840" s="5" t="s">
         <v>1570</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D840" s="0" t="s">
+      <c r="D840" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E840" s="0" t="n">
+      <c r="E840" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="2"/>
-      <c r="B841" s="7" t="s">
+      <c r="A841" s="4"/>
+      <c r="B841" s="5" t="s">
         <v>1572</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D841" s="0" t="n">
+      <c r="D841" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="2"/>
-      <c r="B842" s="7" t="s">
+      <c r="A842" s="4"/>
+      <c r="B842" s="5" t="s">
         <v>1574</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="D842" s="0" t="n">
+      <c r="D842" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="2"/>
-      <c r="B843" s="0" t="s">
+      <c r="A843" s="4"/>
+      <c r="B843" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D843" s="0" t="n">
+      <c r="D843" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="2"/>
-      <c r="B844" s="0" t="s">
+      <c r="A844" s="4"/>
+      <c r="B844" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="D844" s="0" t="n">
+      <c r="D844" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="2"/>
-      <c r="B845" s="0" t="s">
+      <c r="A845" s="4"/>
+      <c r="B845" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D845" s="0" t="n">
+      <c r="D845" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="2" t="s">
+      <c r="A846" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="B846" s="0" t="s">
+      <c r="B846" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D846" s="0" t="n">
+      <c r="D846" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="2"/>
-      <c r="B847" s="0" t="s">
+      <c r="A847" s="4"/>
+      <c r="B847" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="D847" s="0" t="n">
+      <c r="D847" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="2"/>
-      <c r="B848" s="0" t="s">
+      <c r="A848" s="4"/>
+      <c r="B848" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="D848" s="0" t="n">
+      <c r="D848" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="2"/>
-      <c r="B849" s="0" t="s">
+      <c r="A849" s="4"/>
+      <c r="B849" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="D849" s="0" t="n">
+      <c r="D849" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="2"/>
-      <c r="B850" s="0" t="s">
+      <c r="A850" s="4"/>
+      <c r="B850" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D850" s="0" t="n">
+      <c r="D850" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="2"/>
-      <c r="B851" s="0" t="s">
+      <c r="A851" s="4"/>
+      <c r="B851" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D851" s="0" t="n">
+      <c r="D851" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="2"/>
-      <c r="B852" s="0" t="s">
+      <c r="A852" s="4"/>
+      <c r="B852" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="D852" s="0" t="n">
+      <c r="D852" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="2"/>
-      <c r="B853" s="0" t="s">
+      <c r="A853" s="4"/>
+      <c r="B853" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D853" s="0" t="s">
+      <c r="D853" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E853" s="0" t="n">
+      <c r="E853" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="2"/>
-      <c r="B854" s="0" t="s">
+      <c r="A854" s="4"/>
+      <c r="B854" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="D854" s="0" t="n">
+      <c r="D854" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="2"/>
-      <c r="B855" s="0" t="s">
+      <c r="A855" s="4"/>
+      <c r="B855" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="D855" s="0" t="n">
+      <c r="D855" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="2"/>
-      <c r="B856" s="0" t="s">
+      <c r="A856" s="4"/>
+      <c r="B856" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D856" s="0" t="s">
+      <c r="D856" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E856" s="0" t="n">
+      <c r="E856" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="2"/>
-      <c r="B857" s="0" t="s">
+      <c r="A857" s="4"/>
+      <c r="B857" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D857" s="0" t="n">
+      <c r="D857" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="2"/>
-      <c r="B858" s="0" t="s">
+      <c r="A858" s="4"/>
+      <c r="B858" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D858" s="0" t="n">
+      <c r="D858" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="2"/>
-      <c r="B859" s="0" t="s">
+      <c r="A859" s="4"/>
+      <c r="B859" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="D859" s="0" t="n">
+      <c r="D859" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="2"/>
-      <c r="B860" s="0" t="s">
+      <c r="A860" s="4"/>
+      <c r="B860" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="D860" s="0" t="n">
+      <c r="D860" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="2"/>
-      <c r="B861" s="0" t="s">
+      <c r="A861" s="4"/>
+      <c r="B861" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D861" s="0" t="n">
+      <c r="D861" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="2"/>
-      <c r="B862" s="0" t="s">
+      <c r="A862" s="4"/>
+      <c r="B862" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="D862" s="0" t="n">
+      <c r="D862" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="2"/>
-      <c r="B863" s="0" t="s">
+      <c r="A863" s="4"/>
+      <c r="B863" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="D863" s="0" t="n">
+      <c r="D863" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="2"/>
-      <c r="B864" s="0" t="s">
+      <c r="A864" s="4"/>
+      <c r="B864" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D864" s="0" t="n">
+      <c r="D864" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="2"/>
-      <c r="B865" s="0" t="s">
+      <c r="A865" s="4"/>
+      <c r="B865" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="D865" s="0" t="n">
+      <c r="D865" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="2"/>
-      <c r="B866" s="0" t="s">
+      <c r="A866" s="4"/>
+      <c r="B866" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D866" s="0" t="n">
+      <c r="D866" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="2"/>
-      <c r="B867" s="0" t="s">
+      <c r="A867" s="4"/>
+      <c r="B867" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="D867" s="0" t="n">
+      <c r="D867" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="2"/>
-      <c r="B868" s="0" t="s">
+      <c r="A868" s="4"/>
+      <c r="B868" s="1" t="s">
         <v>1621</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="D868" s="0" t="n">
+      <c r="D868" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="2"/>
-      <c r="B869" s="0" t="s">
+      <c r="A869" s="4"/>
+      <c r="B869" s="1" t="s">
         <v>1623</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D869" s="0" t="s">
+      <c r="D869" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E869" s="0" t="n">
+      <c r="E869" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="2"/>
-      <c r="B870" s="0" t="s">
+      <c r="A870" s="4"/>
+      <c r="B870" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D870" s="0" t="n">
+      <c r="D870" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="2"/>
-      <c r="B871" s="0" t="s">
+      <c r="A871" s="4"/>
+      <c r="B871" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D871" s="0" t="s">
+      <c r="D871" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E871" s="0" t="n">
+      <c r="E871" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="2"/>
-      <c r="B872" s="0" t="s">
+      <c r="A872" s="4"/>
+      <c r="B872" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="D872" s="0" t="n">
+      <c r="D872" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="2"/>
-      <c r="B873" s="0" t="s">
+      <c r="A873" s="4"/>
+      <c r="B873" s="1" t="s">
         <v>1630</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="D873" s="0" t="n">
+      <c r="D873" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="2"/>
-      <c r="B874" s="0" t="s">
+      <c r="A874" s="4"/>
+      <c r="B874" s="1" t="s">
         <v>1632</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="D874" s="0" t="n">
+      <c r="D874" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="2" t="s">
+      <c r="A875" s="4" t="s">
         <v>1634</v>
       </c>
-      <c r="B875" s="0" t="s">
+      <c r="B875" s="1" t="s">
         <v>1635</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="D875" s="0" t="n">
+      <c r="D875" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="2"/>
-      <c r="B876" s="0" t="s">
+      <c r="A876" s="4"/>
+      <c r="B876" s="1" t="s">
         <v>1637</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="D876" s="0" t="n">
+      <c r="D876" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="2"/>
-      <c r="B877" s="0" t="s">
+      <c r="A877" s="4"/>
+      <c r="B877" s="1" t="s">
         <v>1639</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="D877" s="0" t="n">
+      <c r="D877" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="2"/>
-      <c r="B878" s="0" t="s">
+      <c r="A878" s="4"/>
+      <c r="B878" s="1" t="s">
         <v>1641</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="D878" s="0" t="n">
+      <c r="D878" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="2"/>
-      <c r="B879" s="0" t="s">
+      <c r="A879" s="4"/>
+      <c r="B879" s="1" t="s">
         <v>1643</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D879" s="0" t="n">
+      <c r="D879" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="2"/>
-      <c r="B880" s="0" t="s">
+      <c r="A880" s="4"/>
+      <c r="B880" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D880" s="0" t="n">
+      <c r="D880" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="2"/>
-      <c r="B881" s="0" t="s">
+      <c r="A881" s="4"/>
+      <c r="B881" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="D881" s="0" t="n">
+      <c r="D881" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="2"/>
-      <c r="B882" s="0" t="s">
+      <c r="A882" s="4"/>
+      <c r="B882" s="1" t="s">
         <v>1648</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="D882" s="0" t="n">
+      <c r="D882" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E882" s="0" t="n">
+      <c r="E882" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="2"/>
-      <c r="B883" s="0" t="s">
+      <c r="A883" s="4"/>
+      <c r="B883" s="1" t="s">
         <v>1650</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="D883" s="0" t="n">
+      <c r="D883" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="2"/>
-      <c r="B884" s="0" t="s">
+      <c r="A884" s="4"/>
+      <c r="B884" s="1" t="s">
         <v>1652</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D884" s="0" t="n">
+      <c r="D884" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="2"/>
-      <c r="B885" s="0" t="s">
+      <c r="A885" s="4"/>
+      <c r="B885" s="1" t="s">
         <v>1653</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="D885" s="0" t="n">
+      <c r="D885" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="2"/>
-      <c r="B886" s="0" t="s">
+      <c r="A886" s="4"/>
+      <c r="B886" s="1" t="s">
         <v>1655</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="D886" s="0" t="n">
+      <c r="D886" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="2"/>
-      <c r="B887" s="0" t="s">
+      <c r="A887" s="4"/>
+      <c r="B887" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D887" s="0" t="n">
+      <c r="D887" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="2"/>
-      <c r="B888" s="0" t="s">
+      <c r="A888" s="4"/>
+      <c r="B888" s="1" t="s">
         <v>1659</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="D888" s="0" t="n">
+      <c r="D888" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="2"/>
-      <c r="B889" s="0" t="s">
+      <c r="A889" s="4"/>
+      <c r="B889" s="1" t="s">
         <v>1661</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="D889" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E889" s="0" t="n">
+      <c r="D889" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E889" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="2"/>
-      <c r="B890" s="0" t="s">
+      <c r="A890" s="4"/>
+      <c r="B890" s="1" t="s">
         <v>1663</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="D890" s="0" t="n">
+      <c r="D890" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="2"/>
-      <c r="B891" s="0" t="s">
+      <c r="A891" s="4"/>
+      <c r="B891" s="1" t="s">
         <v>1665</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="D891" s="0" t="n">
+      <c r="D891" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="2"/>
-      <c r="B892" s="0" t="s">
+      <c r="A892" s="4"/>
+      <c r="B892" s="1" t="s">
         <v>1667</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D892" s="0" t="n">
+      <c r="D892" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="2"/>
-      <c r="B893" s="0" t="s">
+      <c r="A893" s="4"/>
+      <c r="B893" s="1" t="s">
         <v>1668</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D893" s="0" t="n">
+      <c r="D893" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="2"/>
-      <c r="B894" s="0" t="s">
+      <c r="A894" s="4"/>
+      <c r="B894" s="1" t="s">
         <v>1670</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="D894" s="0" t="n">
+      <c r="D894" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="2"/>
-      <c r="B895" s="0" t="s">
+      <c r="A895" s="4"/>
+      <c r="B895" s="1" t="s">
         <v>1672</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="D895" s="0" t="s">
+      <c r="D895" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E895" s="0" t="n">
+      <c r="E895" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="2"/>
-      <c r="B896" s="0" t="s">
+      <c r="A896" s="4"/>
+      <c r="B896" s="1" t="s">
         <v>1674</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D896" s="0" t="n">
+      <c r="D896" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="2"/>
-      <c r="B897" s="0" t="s">
+      <c r="A897" s="4"/>
+      <c r="B897" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D897" s="0" t="n">
+      <c r="D897" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="2"/>
-      <c r="B898" s="0" t="s">
+      <c r="A898" s="4"/>
+      <c r="B898" s="1" t="s">
         <v>1678</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="D898" s="0" t="n">
+      <c r="D898" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="2"/>
-      <c r="B899" s="0" t="s">
+      <c r="A899" s="4"/>
+      <c r="B899" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="D899" s="0" t="n">
+      <c r="D899" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="2" t="s">
+      <c r="A900" s="4" t="s">
         <v>1682</v>
       </c>
-      <c r="B900" s="0" t="s">
+      <c r="B900" s="1" t="s">
         <v>1683</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D900" s="0" t="n">
+      <c r="D900" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="2"/>
-      <c r="B901" s="0" t="s">
+      <c r="A901" s="4"/>
+      <c r="B901" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="D901" s="0" t="n">
+      <c r="D901" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="2"/>
-      <c r="B902" s="0" t="s">
+      <c r="A902" s="4"/>
+      <c r="B902" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D902" s="0" t="n">
+      <c r="D902" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="2"/>
-      <c r="B903" s="0" t="s">
+      <c r="A903" s="4"/>
+      <c r="B903" s="1" t="s">
         <v>1689</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="D903" s="0" t="n">
+      <c r="D903" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="2"/>
-      <c r="B904" s="0" t="s">
+      <c r="A904" s="4"/>
+      <c r="B904" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="D904" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E904" s="0" t="n">
+      <c r="D904" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E904" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="2"/>
-      <c r="B905" s="0" t="s">
+      <c r="A905" s="4"/>
+      <c r="B905" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="D905" s="0" t="s">
+      <c r="D905" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E905" s="0" t="n">
+      <c r="E905" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="2"/>
-      <c r="B906" s="0" t="s">
+      <c r="A906" s="4"/>
+      <c r="B906" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D906" s="0" t="n">
+      <c r="D906" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="2"/>
-      <c r="B907" s="0" t="s">
+      <c r="A907" s="4"/>
+      <c r="B907" s="1" t="s">
         <v>1696</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="D907" s="0" t="n">
+      <c r="D907" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="2"/>
-      <c r="B908" s="0" t="s">
+      <c r="A908" s="4"/>
+      <c r="B908" s="1" t="s">
         <v>1698</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="D908" s="0" t="n">
+      <c r="D908" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="2"/>
-      <c r="B909" s="0" t="s">
+      <c r="A909" s="4"/>
+      <c r="B909" s="1" t="s">
         <v>1700</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D909" s="0" t="n">
+      <c r="D909" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="2"/>
-      <c r="B910" s="0" t="s">
+      <c r="A910" s="4"/>
+      <c r="B910" s="1" t="s">
         <v>1701</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="D910" s="0" t="n">
+      <c r="D910" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="2"/>
-      <c r="B911" s="0" t="s">
+      <c r="A911" s="4"/>
+      <c r="B911" s="1" t="s">
         <v>1703</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="D911" s="0" t="n">
+      <c r="D911" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="2"/>
-      <c r="B912" s="0" t="s">
+      <c r="A912" s="4"/>
+      <c r="B912" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D912" s="0" t="n">
+      <c r="D912" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="2"/>
-      <c r="B913" s="0" t="s">
+      <c r="A913" s="4"/>
+      <c r="B913" s="1" t="s">
         <v>1706</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="D913" s="0" t="n">
+      <c r="D913" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="2"/>
-      <c r="B914" s="0" t="s">
+      <c r="A914" s="4"/>
+      <c r="B914" s="1" t="s">
         <v>1708</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D914" s="0" t="n">
+      <c r="D914" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="2"/>
-      <c r="B915" s="0" t="s">
+      <c r="A915" s="4"/>
+      <c r="B915" s="1" t="s">
         <v>1709</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="D915" s="0" t="n">
+      <c r="D915" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="2"/>
-      <c r="B916" s="0" t="s">
+      <c r="A916" s="4"/>
+      <c r="B916" s="1" t="s">
         <v>1711</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="D916" s="0" t="n">
+      <c r="D916" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="2"/>
-      <c r="B917" s="0" t="s">
+      <c r="A917" s="4"/>
+      <c r="B917" s="1" t="s">
         <v>1713</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D917" s="0" t="n">
+      <c r="D917" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="2"/>
-      <c r="B918" s="0" t="s">
+      <c r="A918" s="4"/>
+      <c r="B918" s="1" t="s">
         <v>1713</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="D918" s="0" t="s">
+      <c r="D918" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E918" s="0" t="n">
+      <c r="E918" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="2"/>
-      <c r="B919" s="0" t="s">
+      <c r="A919" s="4"/>
+      <c r="B919" s="1" t="s">
         <v>1715</v>
       </c>
       <c r="C919" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D919" s="0" t="n">
+      <c r="D919" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="2"/>
-      <c r="B920" s="0" t="s">
+      <c r="A920" s="4"/>
+      <c r="B920" s="1" t="s">
         <v>1716</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="D920" s="0" t="n">
+      <c r="D920" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="2"/>
-      <c r="B921" s="0" t="s">
+      <c r="A921" s="4"/>
+      <c r="B921" s="1" t="s">
         <v>1718</v>
       </c>
       <c r="C921" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="D921" s="0" t="n">
+      <c r="D921" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="2"/>
-      <c r="B922" s="0" t="s">
+      <c r="A922" s="4"/>
+      <c r="B922" s="1" t="s">
         <v>1720</v>
       </c>
       <c r="C922" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D922" s="0" t="n">
+      <c r="D922" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="2"/>
-      <c r="B923" s="0" t="s">
+      <c r="A923" s="4"/>
+      <c r="B923" s="1" t="s">
         <v>1722</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="D923" s="0" t="n">
+      <c r="D923" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="2"/>
-      <c r="B924" s="0" t="s">
+      <c r="A924" s="4"/>
+      <c r="B924" s="1" t="s">
         <v>1724</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="D924" s="0" t="n">
+      <c r="D924" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="2"/>
-      <c r="B925" s="0" t="s">
+      <c r="A925" s="4"/>
+      <c r="B925" s="1" t="s">
         <v>1726</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="D925" s="0" t="n">
+      <c r="D925" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="2"/>
-      <c r="B926" s="0" t="s">
+      <c r="A926" s="4"/>
+      <c r="B926" s="1" t="s">
         <v>1728</v>
       </c>
       <c r="C926" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D926" s="0" t="n">
+      <c r="D926" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="2"/>
-      <c r="B927" s="0" t="s">
+      <c r="A927" s="4"/>
+      <c r="B927" s="1" t="s">
         <v>1729</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D927" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E927" s="0" t="n">
+      <c r="D927" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E927" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="2"/>
-      <c r="B928" s="0" t="s">
+      <c r="A928" s="4"/>
+      <c r="B928" s="1" t="s">
         <v>1730</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D928" s="0" t="n">
+      <c r="D928" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="2"/>
-      <c r="B929" s="0" t="s">
+      <c r="A929" s="4"/>
+      <c r="B929" s="1" t="s">
         <v>1731</v>
       </c>
       <c r="C929" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="D929" s="0" t="n">
+      <c r="D929" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E929" s="0" t="n">
+      <c r="E929" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="2"/>
-      <c r="B930" s="0" t="s">
+      <c r="A930" s="4"/>
+      <c r="B930" s="1" t="s">
         <v>1733</v>
       </c>
       <c r="C930" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D930" s="0" t="n">
+      <c r="D930" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="2"/>
-      <c r="B931" s="0" t="s">
+      <c r="A931" s="4"/>
+      <c r="B931" s="1" t="s">
         <v>1726</v>
       </c>
       <c r="C931" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D931" s="0" t="n">
+      <c r="D931" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="2"/>
-      <c r="B932" s="0" t="s">
+      <c r="A932" s="4"/>
+      <c r="B932" s="1" t="s">
         <v>1734</v>
       </c>
       <c r="C932" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="D932" s="0" t="n">
+      <c r="D932" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="2"/>
-      <c r="B933" s="0" t="s">
+      <c r="A933" s="4"/>
+      <c r="B933" s="1" t="s">
         <v>1736</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="D933" s="0" t="n">
+      <c r="D933" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="2"/>
-      <c r="B934" s="0" t="s">
+      <c r="A934" s="4"/>
+      <c r="B934" s="1" t="s">
         <v>1738</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="D934" s="0" t="n">
+      <c r="D934" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="2"/>
-      <c r="B935" s="0" t="s">
+      <c r="A935" s="4"/>
+      <c r="B935" s="1" t="s">
         <v>1740</v>
       </c>
       <c r="C935" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="D935" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E935" s="0" t="n">
+      <c r="D935" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E935" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="2"/>
-      <c r="B936" s="0" t="s">
+      <c r="A936" s="4"/>
+      <c r="B936" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="C936" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="D936" s="0" t="n">
+      <c r="D936" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="2"/>
-      <c r="B937" s="0" t="s">
+      <c r="A937" s="4"/>
+      <c r="B937" s="1" t="s">
         <v>1744</v>
       </c>
       <c r="C937" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="D937" s="0" t="n">
+      <c r="D937" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="2"/>
-      <c r="B938" s="0" t="s">
+      <c r="A938" s="4"/>
+      <c r="B938" s="1" t="s">
         <v>1746</v>
       </c>
       <c r="C938" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="D938" s="0" t="n">
+      <c r="D938" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="2"/>
-      <c r="B939" s="0" t="s">
+      <c r="A939" s="4"/>
+      <c r="B939" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="C939" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="D939" s="0" t="n">
+      <c r="D939" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E939" s="0" t="n">
+      <c r="E939" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="2"/>
-      <c r="B940" s="0" t="s">
+      <c r="A940" s="4"/>
+      <c r="B940" s="1" t="s">
         <v>1750</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="D940" s="0" t="n">
+      <c r="D940" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E940" s="0" t="n">
+      <c r="E940" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="2"/>
-      <c r="B941" s="0" t="s">
+      <c r="A941" s="4"/>
+      <c r="B941" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D941" s="0" t="n">
+      <c r="D941" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E941" s="0" t="n">
+      <c r="E941" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="2"/>
-      <c r="B942" s="0" t="s">
+      <c r="A942" s="4"/>
+      <c r="B942" s="1" t="s">
         <v>1754</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="D942" s="0" t="n">
+      <c r="D942" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="2"/>
-      <c r="B943" s="0" t="s">
+      <c r="A943" s="4"/>
+      <c r="B943" s="1" t="s">
         <v>1756</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="D943" s="0" t="n">
+      <c r="D943" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="2"/>
-      <c r="B944" s="0" t="s">
+      <c r="A944" s="4"/>
+      <c r="B944" s="1" t="s">
         <v>1758</v>
       </c>
       <c r="C944" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="D944" s="0" t="n">
+      <c r="D944" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="2"/>
-      <c r="B945" s="0" t="s">
+      <c r="A945" s="4"/>
+      <c r="B945" s="1" t="s">
         <v>1760</v>
       </c>
       <c r="C945" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="D945" s="0" t="s">
+      <c r="D945" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E945" s="0" t="n">
+      <c r="E945" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="2"/>
-      <c r="B946" s="0" t="s">
+      <c r="A946" s="4"/>
+      <c r="B946" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="C946" s="1" t="s">
         <v>1763</v>
       </c>
-      <c r="D946" s="0" t="n">
+      <c r="D946" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="2"/>
-      <c r="B947" s="0" t="s">
+      <c r="A947" s="4"/>
+      <c r="B947" s="1" t="s">
         <v>1764</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="D947" s="0" t="s">
+      <c r="D947" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E947" s="0" t="n">
+      <c r="E947" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="2"/>
-      <c r="B948" s="0" t="s">
+      <c r="A948" s="4"/>
+      <c r="B948" s="1" t="s">
         <v>1766</v>
       </c>
       <c r="C948" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="D948" s="0" t="n">
+      <c r="D948" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="2"/>
-      <c r="B949" s="0" t="s">
+      <c r="A949" s="4"/>
+      <c r="B949" s="1" t="s">
         <v>1768</v>
       </c>
       <c r="C949" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="D949" s="0" t="n">
+      <c r="D949" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="2"/>
-      <c r="B950" s="0" t="s">
+      <c r="A950" s="4"/>
+      <c r="B950" s="1" t="s">
         <v>1770</v>
       </c>
       <c r="C950" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="D950" s="0" t="n">
+      <c r="D950" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="2"/>
-      <c r="B951" s="0" t="s">
+      <c r="A951" s="4"/>
+      <c r="B951" s="1" t="s">
         <v>1772</v>
       </c>
       <c r="C951" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="D951" s="0" t="n">
+      <c r="D951" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="2"/>
-      <c r="B952" s="0" t="s">
+      <c r="A952" s="4"/>
+      <c r="B952" s="1" t="s">
         <v>1774</v>
       </c>
       <c r="C952" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="D952" s="0" t="n">
+      <c r="D952" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="2"/>
-      <c r="B953" s="0" t="s">
+      <c r="A953" s="4"/>
+      <c r="B953" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="C953" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D953" s="0" t="n">
+      <c r="D953" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="2"/>
-      <c r="B954" s="0" t="s">
+      <c r="A954" s="4"/>
+      <c r="B954" s="1" t="s">
         <v>1777</v>
       </c>
       <c r="C954" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="D954" s="0" t="n">
+      <c r="D954" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="2"/>
-      <c r="B955" s="0" t="s">
+      <c r="A955" s="4"/>
+      <c r="B955" s="1" t="s">
         <v>1779</v>
       </c>
       <c r="C955" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="D955" s="0" t="n">
+      <c r="D955" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="2"/>
-      <c r="B956" s="0" t="s">
+      <c r="A956" s="4"/>
+      <c r="B956" s="1" t="s">
         <v>1781</v>
       </c>
       <c r="C956" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="D956" s="0" t="n">
+      <c r="D956" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="2"/>
-      <c r="B957" s="0" t="s">
+      <c r="A957" s="4"/>
+      <c r="B957" s="1" t="s">
         <v>1782</v>
       </c>
       <c r="C957" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="D957" s="0" t="s">
+      <c r="D957" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E957" s="0" t="n">
+      <c r="E957" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="2"/>
-      <c r="B958" s="0" t="s">
+      <c r="A958" s="4"/>
+      <c r="B958" s="1" t="s">
         <v>1784</v>
       </c>
       <c r="C958" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="D958" s="0" t="n">
+      <c r="D958" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="2"/>
-      <c r="B959" s="0" t="s">
+      <c r="A959" s="4"/>
+      <c r="B959" s="1" t="s">
         <v>1786</v>
       </c>
       <c r="C959" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="D959" s="0" t="n">
+      <c r="D959" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="2"/>
-      <c r="B960" s="0" t="s">
+      <c r="A960" s="4"/>
+      <c r="B960" s="1" t="s">
         <v>1788</v>
       </c>
       <c r="C960" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D960" s="0" t="n">
+      <c r="D960" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="2"/>
-      <c r="B961" s="0" t="s">
+      <c r="A961" s="4"/>
+      <c r="B961" s="1" t="s">
         <v>1789</v>
       </c>
       <c r="C961" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="D961" s="0" t="n">
+      <c r="D961" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="2"/>
-      <c r="B962" s="0" t="s">
+      <c r="A962" s="4"/>
+      <c r="B962" s="1" t="s">
         <v>1791</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="D962" s="0" t="s">
+      <c r="D962" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E962" s="0" t="n">
+      <c r="E962" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="2"/>
-      <c r="B963" s="0" t="s">
+      <c r="A963" s="4"/>
+      <c r="B963" s="1" t="s">
         <v>1793</v>
       </c>
       <c r="C963" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D963" s="0" t="n">
+      <c r="D963" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="2"/>
-      <c r="B964" s="0" t="s">
+      <c r="A964" s="4"/>
+      <c r="B964" s="1" t="s">
         <v>1794</v>
       </c>
       <c r="C964" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D964" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E964" s="0" t="n">
+      <c r="D964" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E964" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="2"/>
-      <c r="B965" s="0" t="s">
+      <c r="A965" s="4"/>
+      <c r="B965" s="1" t="s">
         <v>1796</v>
       </c>
       <c r="C965" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D965" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E965" s="0" t="n">
+      <c r="D965" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E965" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="2"/>
-      <c r="B966" s="0" t="s">
+      <c r="A966" s="4"/>
+      <c r="B966" s="1" t="s">
         <v>1797</v>
       </c>
       <c r="C966" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="D966" s="0" t="n">
+      <c r="D966" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="2"/>
-      <c r="B967" s="0" t="s">
+      <c r="A967" s="4"/>
+      <c r="B967" s="1" t="s">
         <v>1799</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="D967" s="0" t="n">
+      <c r="D967" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="2"/>
-      <c r="B968" s="0" t="s">
+      <c r="A968" s="4"/>
+      <c r="B968" s="1" t="s">
         <v>1801</v>
       </c>
       <c r="C968" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D968" s="0" t="n">
+      <c r="D968" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="2"/>
-      <c r="B969" s="0" t="s">
+      <c r="A969" s="4"/>
+      <c r="B969" s="1" t="s">
         <v>1803</v>
       </c>
       <c r="C969" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D969" s="0" t="n">
+      <c r="D969" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="2"/>
-      <c r="B970" s="0" t="s">
+      <c r="A970" s="4"/>
+      <c r="B970" s="1" t="s">
         <v>1805</v>
       </c>
       <c r="C970" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="D970" s="0" t="n">
+      <c r="D970" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="2"/>
-      <c r="B971" s="0" t="s">
+      <c r="A971" s="4"/>
+      <c r="B971" s="1" t="s">
         <v>1807</v>
       </c>
       <c r="C971" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="D971" s="0" t="n">
+      <c r="D971" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="2"/>
-      <c r="B972" s="0" t="s">
+      <c r="A972" s="4"/>
+      <c r="B972" s="1" t="s">
         <v>1809</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="D972" s="0" t="s">
+      <c r="D972" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E972" s="0" t="n">
+      <c r="E972" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="2"/>
-      <c r="B973" s="0" t="s">
+      <c r="A973" s="4"/>
+      <c r="B973" s="1" t="s">
         <v>1811</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="D973" s="0" t="n">
+      <c r="D973" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="2"/>
-      <c r="B974" s="0" t="s">
+      <c r="A974" s="4"/>
+      <c r="B974" s="1" t="s">
         <v>1813</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="D974" s="0" t="n">
+      <c r="D974" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="2"/>
-      <c r="B975" s="0" t="s">
+      <c r="A975" s="4"/>
+      <c r="B975" s="1" t="s">
         <v>1815</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="D975" s="0" t="n">
+      <c r="D975" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="2"/>
-      <c r="B976" s="0" t="s">
+      <c r="A976" s="4"/>
+      <c r="B976" s="1" t="s">
         <v>1817</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="D976" s="0" t="n">
+      <c r="D976" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="2"/>
-      <c r="B977" s="0" t="s">
+      <c r="A977" s="4"/>
+      <c r="B977" s="1" t="s">
         <v>1819</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="D977" s="0" t="n">
+      <c r="D977" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="2"/>
-      <c r="B978" s="0" t="s">
+      <c r="A978" s="4"/>
+      <c r="B978" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="D978" s="0" t="n">
+      <c r="D978" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="2"/>
-      <c r="B979" s="0" t="s">
+      <c r="A979" s="4"/>
+      <c r="B979" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="C979" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="D979" s="0" t="n">
+      <c r="D979" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="2"/>
-      <c r="B980" s="0" t="s">
+      <c r="A980" s="4"/>
+      <c r="B980" s="1" t="s">
         <v>1825</v>
       </c>
       <c r="C980" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="D980" s="0" t="n">
+      <c r="D980" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="2"/>
-      <c r="B981" s="0" t="s">
+      <c r="A981" s="4"/>
+      <c r="B981" s="1" t="s">
         <v>1827</v>
       </c>
       <c r="C981" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="D981" s="0" t="n">
+      <c r="D981" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="2"/>
-      <c r="B982" s="0" t="s">
+      <c r="A982" s="4"/>
+      <c r="B982" s="1" t="s">
         <v>1829</v>
       </c>
       <c r="C982" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="D982" s="0" t="n">
+      <c r="D982" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="2"/>
-      <c r="B983" s="0" t="s">
+      <c r="A983" s="4"/>
+      <c r="B983" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="C983" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D983" s="0" t="n">
+      <c r="D983" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="2"/>
-      <c r="B984" s="0" t="s">
+      <c r="A984" s="4"/>
+      <c r="B984" s="1" t="s">
         <v>1833</v>
       </c>
       <c r="C984" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="D984" s="0" t="n">
+      <c r="D984" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="2" t="s">
+      <c r="A985" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="B985" s="0" t="s">
+      <c r="B985" s="1" t="s">
         <v>1836</v>
       </c>
       <c r="C985" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="D985" s="0" t="n">
+      <c r="D985" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="2"/>
-      <c r="B986" s="0" t="s">
+      <c r="A986" s="4"/>
+      <c r="B986" s="1" t="s">
         <v>1838</v>
       </c>
       <c r="C986" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="D986" s="0" t="n">
+      <c r="D986" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="2"/>
-      <c r="B987" s="0" t="s">
+      <c r="A987" s="4"/>
+      <c r="B987" s="1" t="s">
         <v>1840</v>
       </c>
       <c r="C987" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="D987" s="0" t="n">
+      <c r="D987" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="2"/>
-      <c r="B988" s="0" t="s">
+      <c r="A988" s="4"/>
+      <c r="B988" s="1" t="s">
         <v>1842</v>
       </c>
       <c r="C988" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D988" s="0" t="n">
+      <c r="D988" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="2"/>
-      <c r="B989" s="0" t="s">
+      <c r="A989" s="4"/>
+      <c r="B989" s="1" t="s">
         <v>1843</v>
       </c>
       <c r="C989" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="D989" s="0" t="n">
+      <c r="D989" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="2"/>
-      <c r="B990" s="0" t="s">
+      <c r="A990" s="4"/>
+      <c r="B990" s="1" t="s">
         <v>1845</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="D990" s="0" t="n">
+      <c r="D990" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="2"/>
-      <c r="B991" s="0" t="s">
+      <c r="A991" s="4"/>
+      <c r="B991" s="1" t="s">
         <v>1847</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="D991" s="0" t="n">
+      <c r="D991" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="2"/>
-      <c r="B992" s="0" t="s">
+      <c r="A992" s="4"/>
+      <c r="B992" s="1" t="s">
         <v>1849</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="D992" s="0" t="n">
+      <c r="D992" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="2"/>
-      <c r="B993" s="0" t="s">
+      <c r="A993" s="4"/>
+      <c r="B993" s="1" t="s">
         <v>1851</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="D993" s="0" t="n">
+      <c r="D993" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="2"/>
-      <c r="B994" s="0" t="s">
+      <c r="A994" s="4"/>
+      <c r="B994" s="1" t="s">
         <v>1853</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D994" s="0" t="s">
+      <c r="D994" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E994" s="0" t="n">
+      <c r="E994" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="2"/>
-      <c r="B995" s="0" t="s">
+      <c r="A995" s="4"/>
+      <c r="B995" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="C995" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="D995" s="0" t="n">
+      <c r="D995" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="2"/>
-      <c r="B996" s="0" t="s">
+      <c r="A996" s="4"/>
+      <c r="B996" s="1" t="s">
         <v>1856</v>
       </c>
       <c r="C996" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="D996" s="0" t="n">
+      <c r="D996" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="2"/>
-      <c r="B997" s="0" t="s">
+      <c r="A997" s="4"/>
+      <c r="B997" s="1" t="s">
         <v>1858</v>
       </c>
       <c r="C997" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D997" s="0" t="n">
+      <c r="D997" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="2"/>
-      <c r="B998" s="0" t="s">
+      <c r="A998" s="4"/>
+      <c r="B998" s="1" t="s">
         <v>1860</v>
       </c>
       <c r="C998" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D998" s="0" t="n">
+      <c r="D998" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="2"/>
-      <c r="B999" s="0" t="s">
+      <c r="A999" s="4"/>
+      <c r="B999" s="1" t="s">
         <v>1861</v>
       </c>
       <c r="C999" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="D999" s="0" t="n">
+      <c r="D999" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="0" t="s">
+      <c r="A1000" s="4"/>
+      <c r="B1000" s="1" t="s">
         <v>1863</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="D1000" s="0" t="n">
+      <c r="D1000" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="0" t="s">
+      <c r="A1001" s="4"/>
+      <c r="B1001" s="1" t="s">
         <v>1865</v>
       </c>
       <c r="C1001" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="D1001" s="0" t="n">
+      <c r="D1001" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="0" t="s">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="1" t="s">
         <v>1867</v>
       </c>
       <c r="C1002" s="1" t="s">
         <v>1868</v>
       </c>
-      <c r="D1002" s="0" t="n">
+      <c r="D1002" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="0" t="s">
+      <c r="A1003" s="4"/>
+      <c r="B1003" s="1" t="s">
         <v>1869</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="D1003" s="0" t="n">
+      <c r="D1003" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="0" t="s">
+      <c r="A1004" s="4"/>
+      <c r="B1004" s="1" t="s">
         <v>1871</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="D1004" s="0" t="n">
+      <c r="D1004" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="0" t="s">
+      <c r="A1005" s="4"/>
+      <c r="B1005" s="1" t="s">
         <v>1873</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="D1005" s="0" t="n">
+      <c r="D1005" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="2"/>
-      <c r="B1006" s="0" t="s">
+      <c r="A1006" s="4"/>
+      <c r="B1006" s="1" t="s">
         <v>1875</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="D1006" s="0" t="n">
+      <c r="D1006" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="2"/>
-      <c r="B1007" s="0" t="s">
+      <c r="A1007" s="4"/>
+      <c r="B1007" s="1" t="s">
         <v>1877</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="D1007" s="0" t="n">
+      <c r="D1007" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="0" t="s">
+      <c r="A1008" s="4"/>
+      <c r="B1008" s="1" t="s">
         <v>1879</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="D1008" s="0" t="n">
+      <c r="D1008" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="2"/>
-      <c r="B1009" s="0" t="s">
+      <c r="A1009" s="4"/>
+      <c r="B1009" s="1" t="s">
         <v>1880</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="D1009" s="0" t="s">
+      <c r="D1009" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1009" s="0" t="n">
+      <c r="E1009" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="2"/>
-      <c r="B1010" s="0" t="s">
+      <c r="A1010" s="4"/>
+      <c r="B1010" s="1" t="s">
         <v>1882</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="D1010" s="0" t="n">
+      <c r="D1010" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="2"/>
-      <c r="B1011" s="0" t="s">
+      <c r="A1011" s="4"/>
+      <c r="B1011" s="1" t="s">
         <v>1884</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="D1011" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1011" s="0" t="n">
+      <c r="D1011" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1011" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="2"/>
-      <c r="B1012" s="0" t="s">
+      <c r="A1012" s="4"/>
+      <c r="B1012" s="1" t="s">
         <v>1886</v>
       </c>
       <c r="C1012" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="D1012" s="0" t="n">
+      <c r="D1012" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="2"/>
-      <c r="B1013" s="0" t="s">
+      <c r="A1013" s="4"/>
+      <c r="B1013" s="1" t="s">
         <v>1888</v>
       </c>
       <c r="C1013" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="D1013" s="0" t="s">
+      <c r="D1013" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1013" s="0" t="n">
+      <c r="E1013" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="2"/>
-      <c r="B1014" s="0" t="s">
+      <c r="A1014" s="4"/>
+      <c r="B1014" s="1" t="s">
         <v>1889</v>
       </c>
       <c r="C1014" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="D1014" s="0" t="n">
+      <c r="D1014" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="2"/>
-      <c r="B1015" s="0" t="s">
+      <c r="A1015" s="4"/>
+      <c r="B1015" s="1" t="s">
         <v>1891</v>
       </c>
       <c r="C1015" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="D1015" s="0" t="s">
+      <c r="D1015" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1015" s="0" t="n">
+      <c r="E1015" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="2"/>
-      <c r="B1016" s="0" t="s">
+      <c r="A1016" s="4"/>
+      <c r="B1016" s="1" t="s">
         <v>1893</v>
       </c>
       <c r="C1016" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="D1016" s="0" t="n">
+      <c r="D1016" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="2"/>
-      <c r="B1017" s="0" t="s">
+      <c r="A1017" s="4"/>
+      <c r="B1017" s="1" t="s">
         <v>1894</v>
       </c>
       <c r="C1017" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="D1017" s="0" t="n">
+      <c r="D1017" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="2"/>
-      <c r="B1018" s="0" t="s">
+      <c r="A1018" s="4"/>
+      <c r="B1018" s="1" t="s">
         <v>1896</v>
       </c>
       <c r="C1018" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="D1018" s="0" t="n">
+      <c r="D1018" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="2"/>
-      <c r="B1019" s="0" t="s">
+      <c r="A1019" s="4"/>
+      <c r="B1019" s="1" t="s">
         <v>1897</v>
       </c>
       <c r="C1019" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="D1019" s="0" t="n">
+      <c r="D1019" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="2"/>
-      <c r="B1020" s="0" t="s">
+      <c r="A1020" s="4"/>
+      <c r="B1020" s="1" t="s">
         <v>1899</v>
       </c>
       <c r="C1020" s="1" t="s">
         <v>1900</v>
       </c>
-      <c r="D1020" s="0" t="n">
+      <c r="D1020" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="2"/>
-      <c r="B1021" s="0" t="s">
+      <c r="A1021" s="4"/>
+      <c r="B1021" s="1" t="s">
         <v>1901</v>
       </c>
       <c r="C1021" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D1021" s="0" t="n">
+      <c r="D1021" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="2"/>
-      <c r="B1022" s="0" t="s">
+      <c r="A1022" s="4"/>
+      <c r="B1022" s="1" t="s">
         <v>1902</v>
       </c>
       <c r="C1022" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="D1022" s="0" t="n">
+      <c r="D1022" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="2"/>
-      <c r="B1023" s="0" t="s">
+      <c r="A1023" s="4"/>
+      <c r="B1023" s="1" t="s">
         <v>1904</v>
       </c>
       <c r="C1023" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="D1023" s="0" t="n">
+      <c r="D1023" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="2"/>
-      <c r="B1024" s="0" t="s">
+      <c r="A1024" s="4"/>
+      <c r="B1024" s="1" t="s">
         <v>1905</v>
       </c>
       <c r="C1024" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="D1024" s="0" t="n">
+      <c r="D1024" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="2"/>
-      <c r="B1025" s="0" t="s">
+      <c r="A1025" s="4"/>
+      <c r="B1025" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="C1025" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D1025" s="0" t="n">
+      <c r="D1025" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="2"/>
-      <c r="B1026" s="0" t="s">
+      <c r="A1026" s="4"/>
+      <c r="B1026" s="1" t="s">
         <v>1908</v>
       </c>
       <c r="C1026" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D1026" s="0" t="n">
+      <c r="D1026" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="2"/>
-      <c r="B1027" s="0" t="s">
+      <c r="A1027" s="4"/>
+      <c r="B1027" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="C1027" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="D1027" s="0" t="n">
+      <c r="D1027" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="2"/>
-      <c r="B1028" s="0" t="s">
+      <c r="A1028" s="4"/>
+      <c r="B1028" s="1" t="s">
         <v>1911</v>
       </c>
       <c r="C1028" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D1028" s="0" t="n">
+      <c r="D1028" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="2"/>
-      <c r="B1029" s="0" t="s">
+      <c r="A1029" s="4"/>
+      <c r="B1029" s="1" t="s">
         <v>1912</v>
       </c>
       <c r="C1029" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="D1029" s="0" t="n">
+      <c r="D1029" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="2"/>
-      <c r="B1030" s="0" t="s">
+      <c r="A1030" s="4"/>
+      <c r="B1030" s="1" t="s">
         <v>1914</v>
       </c>
       <c r="C1030" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D1030" s="0" t="n">
+      <c r="D1030" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="2"/>
-      <c r="B1031" s="0" t="s">
+      <c r="A1031" s="4"/>
+      <c r="B1031" s="1" t="s">
         <v>1912</v>
       </c>
       <c r="C1031" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D1031" s="0" t="n">
+      <c r="D1031" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="2"/>
-      <c r="B1032" s="0" t="s">
+      <c r="A1032" s="4"/>
+      <c r="B1032" s="1" t="s">
         <v>1915</v>
       </c>
       <c r="C1032" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="D1032" s="0" t="n">
+      <c r="D1032" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="2"/>
-      <c r="B1033" s="0" t="s">
+      <c r="A1033" s="4"/>
+      <c r="B1033" s="1" t="s">
         <v>1917</v>
       </c>
       <c r="C1033" s="1" t="s">
         <v>1918</v>
       </c>
-      <c r="D1033" s="0" t="n">
+      <c r="D1033" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="2"/>
-      <c r="B1034" s="0" t="s">
+      <c r="A1034" s="4"/>
+      <c r="B1034" s="1" t="s">
         <v>1919</v>
       </c>
       <c r="C1034" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1034" s="0" t="n">
+      <c r="D1034" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="2"/>
-      <c r="B1035" s="0" t="s">
+      <c r="A1035" s="4"/>
+      <c r="B1035" s="1" t="s">
         <v>1920</v>
       </c>
       <c r="C1035" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D1035" s="0" t="n">
+      <c r="D1035" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="2"/>
-      <c r="B1036" s="0" t="s">
+      <c r="A1036" s="4"/>
+      <c r="B1036" s="1" t="s">
         <v>1921</v>
       </c>
       <c r="C1036" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="D1036" s="0" t="n">
+      <c r="D1036" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="2"/>
-      <c r="B1037" s="0" t="s">
+      <c r="A1037" s="4"/>
+      <c r="B1037" s="1" t="s">
         <v>1923</v>
       </c>
       <c r="C1037" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="D1037" s="0" t="n">
+      <c r="D1037" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="2"/>
-      <c r="B1038" s="0" t="s">
+      <c r="A1038" s="4"/>
+      <c r="B1038" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="C1038" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="D1038" s="0" t="s">
+      <c r="D1038" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1038" s="0" t="n">
+      <c r="E1038" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="2"/>
-      <c r="B1039" s="0" t="s">
+      <c r="A1039" s="4"/>
+      <c r="B1039" s="1" t="s">
         <v>1927</v>
       </c>
       <c r="C1039" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="D1039" s="0" t="n">
+      <c r="D1039" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="2"/>
-      <c r="B1040" s="0" t="s">
+      <c r="A1040" s="4"/>
+      <c r="B1040" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="C1040" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="D1040" s="0" t="n">
+      <c r="D1040" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="2"/>
-      <c r="B1041" s="0" t="s">
+      <c r="A1041" s="4"/>
+      <c r="B1041" s="1" t="s">
         <v>1931</v>
       </c>
       <c r="C1041" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="D1041" s="0" t="n">
+      <c r="D1041" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="2"/>
-      <c r="B1042" s="0" t="s">
+      <c r="A1042" s="4"/>
+      <c r="B1042" s="1" t="s">
         <v>1933</v>
       </c>
       <c r="C1042" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D1042" s="0" t="n">
+      <c r="D1042" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="2"/>
-      <c r="B1043" s="0" t="s">
+      <c r="A1043" s="4"/>
+      <c r="B1043" s="1" t="s">
         <v>1934</v>
       </c>
       <c r="C1043" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D1043" s="0" t="n">
+      <c r="D1043" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="2"/>
-      <c r="B1044" s="0" t="s">
+      <c r="A1044" s="4"/>
+      <c r="B1044" s="1" t="s">
         <v>1935</v>
       </c>
       <c r="C1044" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="D1044" s="0" t="n">
+      <c r="D1044" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="2"/>
-      <c r="B1045" s="0" t="s">
+      <c r="A1045" s="4"/>
+      <c r="B1045" s="1" t="s">
         <v>1937</v>
       </c>
       <c r="C1045" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="D1045" s="0" t="n">
+      <c r="D1045" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="2"/>
-      <c r="B1046" s="0" t="s">
+      <c r="A1046" s="4"/>
+      <c r="B1046" s="1" t="s">
         <v>1939</v>
       </c>
       <c r="C1046" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D1046" s="0" t="n">
+      <c r="D1046" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="2"/>
-      <c r="B1047" s="0" t="s">
+      <c r="A1047" s="4"/>
+      <c r="B1047" s="1" t="s">
         <v>1940</v>
       </c>
       <c r="C1047" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="D1047" s="0" t="n">
+      <c r="D1047" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="2"/>
-      <c r="B1048" s="0" t="s">
+      <c r="A1048" s="4"/>
+      <c r="B1048" s="1" t="s">
         <v>1942</v>
       </c>
       <c r="C1048" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="D1048" s="0" t="n">
+      <c r="D1048" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="2"/>
-      <c r="B1049" s="0" t="s">
+      <c r="A1049" s="4"/>
+      <c r="B1049" s="1" t="s">
         <v>1944</v>
       </c>
       <c r="C1049" s="1" t="s">
         <v>1945</v>
       </c>
-      <c r="D1049" s="0" t="n">
+      <c r="D1049" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="8" t="s">
+      <c r="A1050" s="4" t="s">
         <v>1946</v>
       </c>
-      <c r="B1050" s="0" t="s">
+      <c r="B1050" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="C1050" s="0" t="s">
+      <c r="C1050" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D1050" s="0" t="n">
+      <c r="D1050" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="8"/>
-      <c r="B1051" s="0" t="s">
+      <c r="A1051" s="4"/>
+      <c r="B1051" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="C1051" s="0" t="s">
+      <c r="C1051" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D1051" s="0" t="n">
+      <c r="D1051" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="8"/>
-      <c r="B1052" s="0" t="s">
+      <c r="A1052" s="4"/>
+      <c r="B1052" s="1" t="s">
         <v>1949</v>
       </c>
-      <c r="C1052" s="0" t="s">
+      <c r="C1052" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="D1052" s="0" t="n">
+      <c r="D1052" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="8"/>
-      <c r="B1053" s="0" t="s">
+      <c r="A1053" s="4"/>
+      <c r="B1053" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="C1053" s="0" t="s">
+      <c r="C1053" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="D1053" s="0" t="n">
+      <c r="D1053" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="8"/>
-      <c r="B1054" s="0" t="s">
+      <c r="A1054" s="4"/>
+      <c r="B1054" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="C1054" s="0" t="s">
+      <c r="C1054" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="D1054" s="0" t="n">
+      <c r="D1054" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="8"/>
-      <c r="B1055" s="0" t="s">
+      <c r="A1055" s="4"/>
+      <c r="B1055" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="C1055" s="0" t="s">
+      <c r="C1055" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="D1055" s="0" t="n">
+      <c r="D1055" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="8"/>
-      <c r="B1056" s="0" t="s">
+      <c r="A1056" s="4"/>
+      <c r="B1056" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="C1056" s="0" t="s">
+      <c r="C1056" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="D1056" s="0" t="n">
+      <c r="D1056" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="8"/>
-      <c r="B1057" s="0" t="s">
+      <c r="A1057" s="4"/>
+      <c r="B1057" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="C1057" s="0" t="s">
+      <c r="C1057" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D1057" s="0" t="n">
+      <c r="D1057" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="8"/>
-      <c r="B1058" s="0" t="s">
+      <c r="A1058" s="4"/>
+      <c r="B1058" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="C1058" s="0" t="s">
+      <c r="C1058" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="D1058" s="0" t="n">
+      <c r="D1058" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="8"/>
-      <c r="B1059" s="0" t="s">
+      <c r="A1059" s="4"/>
+      <c r="B1059" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="C1059" s="0" t="s">
+      <c r="C1059" s="1" t="s">
         <v>1963</v>
       </c>
-      <c r="D1059" s="0" t="n">
+      <c r="D1059" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="8"/>
-      <c r="B1060" s="0" t="s">
+      <c r="A1060" s="4"/>
+      <c r="B1060" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="C1060" s="0" t="s">
+      <c r="C1060" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="D1060" s="0" t="n">
+      <c r="D1060" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="8"/>
-      <c r="B1061" s="0" t="s">
+      <c r="A1061" s="4"/>
+      <c r="B1061" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="C1061" s="0" t="s">
+      <c r="C1061" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="D1061" s="0" t="n">
+      <c r="D1061" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="8"/>
-      <c r="B1062" s="0" t="s">
+      <c r="A1062" s="4"/>
+      <c r="B1062" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="C1062" s="0" t="s">
+      <c r="C1062" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="D1062" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1062" s="0" t="n">
+      <c r="D1062" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1062" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="8"/>
-      <c r="B1063" s="0" t="s">
+      <c r="A1063" s="4"/>
+      <c r="B1063" s="1" t="s">
         <v>1969</v>
       </c>
-      <c r="C1063" s="0" t="s">
+      <c r="C1063" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="D1063" s="0" t="n">
+      <c r="D1063" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="8"/>
-      <c r="B1064" s="0" t="s">
+      <c r="A1064" s="4"/>
+      <c r="B1064" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="C1064" s="0" t="s">
+      <c r="C1064" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="D1064" s="0" t="n">
+      <c r="D1064" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="8"/>
-      <c r="B1065" s="0" t="s">
+      <c r="A1065" s="4"/>
+      <c r="B1065" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="C1065" s="0" t="s">
+      <c r="C1065" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="D1065" s="0" t="n">
+      <c r="D1065" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="8"/>
-      <c r="B1066" s="0" t="s">
+      <c r="A1066" s="4"/>
+      <c r="B1066" s="1" t="s">
         <v>1974</v>
       </c>
       <c r="C1066" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="D1066" s="0" t="n">
+      <c r="D1066" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="8"/>
-      <c r="B1067" s="0" t="s">
+      <c r="A1067" s="4"/>
+      <c r="B1067" s="1" t="s">
         <v>1976</v>
       </c>
       <c r="C1067" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="D1067" s="0" t="n">
+      <c r="D1067" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="8"/>
-      <c r="B1068" s="0" t="s">
+      <c r="A1068" s="4"/>
+      <c r="B1068" s="1" t="s">
         <v>1978</v>
       </c>
       <c r="C1068" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="D1068" s="0" t="n">
+      <c r="D1068" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="8"/>
-      <c r="B1069" s="0" t="s">
+      <c r="A1069" s="4"/>
+      <c r="B1069" s="1" t="s">
         <v>1980</v>
       </c>
       <c r="C1069" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="D1069" s="0" t="n">
+      <c r="D1069" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="8"/>
-      <c r="B1070" s="0" t="s">
+      <c r="A1070" s="4"/>
+      <c r="B1070" s="1" t="s">
         <v>1982</v>
       </c>
       <c r="C1070" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="D1070" s="0" t="n">
+      <c r="D1070" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="8"/>
-      <c r="B1071" s="0" t="s">
+      <c r="A1071" s="4"/>
+      <c r="B1071" s="1" t="s">
         <v>1984</v>
       </c>
       <c r="C1071" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="D1071" s="0" t="n">
+      <c r="D1071" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="8"/>
-      <c r="B1072" s="0" t="s">
+      <c r="A1072" s="4"/>
+      <c r="B1072" s="1" t="s">
         <v>1986</v>
       </c>
       <c r="C1072" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="D1072" s="0" t="n">
+      <c r="D1072" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="8"/>
-      <c r="B1073" s="0" t="s">
+      <c r="A1073" s="4"/>
+      <c r="B1073" s="1" t="s">
         <v>1988</v>
       </c>
       <c r="C1073" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="D1073" s="0" t="n">
+      <c r="D1073" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="8"/>
-      <c r="B1074" s="0" t="s">
+      <c r="A1074" s="4"/>
+      <c r="B1074" s="1" t="s">
         <v>1988</v>
       </c>
       <c r="C1074" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="D1074" s="0" t="n">
+      <c r="D1074" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="8"/>
-      <c r="B1075" s="0" t="s">
+      <c r="A1075" s="4"/>
+      <c r="B1075" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="C1075" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="D1075" s="0" t="n">
+      <c r="D1075" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="8"/>
-      <c r="B1076" s="0" t="s">
+      <c r="A1076" s="4"/>
+      <c r="B1076" s="1" t="s">
         <v>1991</v>
       </c>
       <c r="C1076" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="D1076" s="0" t="s">
+      <c r="D1076" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1076" s="0" t="n">
+      <c r="E1076" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="8"/>
-      <c r="B1077" s="0" t="s">
+      <c r="A1077" s="4"/>
+      <c r="B1077" s="1" t="s">
         <v>1992</v>
       </c>
       <c r="C1077" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D1077" s="0" t="n">
+      <c r="D1077" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="8"/>
-      <c r="B1078" s="0" t="s">
+      <c r="A1078" s="4"/>
+      <c r="B1078" s="1" t="s">
         <v>1993</v>
       </c>
       <c r="C1078" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D1078" s="0" t="n">
+      <c r="D1078" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="8"/>
-      <c r="B1079" s="0" t="s">
+      <c r="A1079" s="4"/>
+      <c r="B1079" s="1" t="s">
         <v>1994</v>
       </c>
       <c r="C1079" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="D1079" s="0" t="n">
+      <c r="D1079" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="8"/>
-      <c r="B1080" s="0" t="s">
+      <c r="A1080" s="4"/>
+      <c r="B1080" s="1" t="s">
         <v>1996</v>
       </c>
       <c r="C1080" s="1" t="s">
         <v>1997</v>
       </c>
-      <c r="D1080" s="0" t="n">
+      <c r="D1080" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="8"/>
-      <c r="B1081" s="0" t="s">
+      <c r="A1081" s="4"/>
+      <c r="B1081" s="1" t="s">
         <v>1998</v>
       </c>
       <c r="C1081" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="D1081" s="0" t="n">
+      <c r="D1081" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="8"/>
-      <c r="B1082" s="0" t="s">
+      <c r="A1082" s="4"/>
+      <c r="B1082" s="1" t="s">
         <v>2000</v>
       </c>
       <c r="C1082" s="1" t="s">
         <v>2001</v>
       </c>
-      <c r="D1082" s="0" t="n">
+      <c r="D1082" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="8"/>
-      <c r="B1083" s="0" t="s">
+      <c r="A1083" s="4"/>
+      <c r="B1083" s="1" t="s">
         <v>2002</v>
       </c>
       <c r="C1083" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="D1083" s="0" t="n">
+      <c r="D1083" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="8"/>
-      <c r="B1084" s="0" t="s">
+      <c r="A1084" s="4"/>
+      <c r="B1084" s="1" t="s">
         <v>2004</v>
       </c>
       <c r="C1084" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D1084" s="0" t="n">
+      <c r="D1084" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1085" s="8"/>
-      <c r="B1085" s="0" t="s">
+      <c r="A1085" s="4"/>
+      <c r="B1085" s="1" t="s">
         <v>2005</v>
       </c>
       <c r="C1085" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="D1085" s="0" t="s">
+      <c r="D1085" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1085" s="0" t="n">
+      <c r="E1085" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="8"/>
-      <c r="B1086" s="0" t="s">
+      <c r="A1086" s="4"/>
+      <c r="B1086" s="1" t="s">
         <v>2006</v>
       </c>
       <c r="C1086" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="D1086" s="0" t="n">
+      <c r="D1086" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1087" s="8"/>
-      <c r="B1087" s="0" t="s">
+      <c r="A1087" s="4"/>
+      <c r="B1087" s="1" t="s">
         <v>2008</v>
       </c>
       <c r="C1087" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="D1087" s="0" t="n">
+      <c r="D1087" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="8"/>
-      <c r="B1088" s="0" t="s">
+      <c r="A1088" s="4"/>
+      <c r="B1088" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="C1088" s="1" t="s">
         <v>2011</v>
       </c>
-      <c r="D1088" s="0" t="n">
+      <c r="D1088" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="8"/>
-      <c r="B1089" s="0" t="s">
+      <c r="A1089" s="4"/>
+      <c r="B1089" s="1" t="s">
         <v>2012</v>
       </c>
       <c r="C1089" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="D1089" s="0" t="n">
+      <c r="D1089" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="8"/>
-      <c r="B1090" s="0" t="s">
+      <c r="A1090" s="4"/>
+      <c r="B1090" s="1" t="s">
         <v>2014</v>
       </c>
       <c r="C1090" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="D1090" s="0" t="n">
+      <c r="D1090" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="8"/>
-      <c r="B1091" s="0" t="s">
+      <c r="A1091" s="4"/>
+      <c r="B1091" s="1" t="s">
         <v>2016</v>
       </c>
       <c r="C1091" s="1" t="s">
         <v>2017</v>
       </c>
-      <c r="D1091" s="0" t="n">
+      <c r="D1091" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="8"/>
-      <c r="B1092" s="0" t="s">
+      <c r="A1092" s="4"/>
+      <c r="B1092" s="1" t="s">
         <v>2018</v>
       </c>
       <c r="C1092" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="D1092" s="0" t="n">
+      <c r="D1092" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="8"/>
-      <c r="B1093" s="0" t="s">
+      <c r="A1093" s="4"/>
+      <c r="B1093" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="C1093" s="1" t="s">
         <v>2021</v>
       </c>
-      <c r="D1093" s="0" t="n">
+      <c r="D1093" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="8"/>
-      <c r="B1094" s="0" t="s">
+      <c r="A1094" s="4"/>
+      <c r="B1094" s="1" t="s">
         <v>2022</v>
       </c>
       <c r="C1094" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="D1094" s="0" t="n">
+      <c r="D1094" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="8"/>
-      <c r="B1095" s="0" t="s">
+      <c r="A1095" s="4"/>
+      <c r="B1095" s="1" t="s">
         <v>2024</v>
       </c>
       <c r="C1095" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="D1095" s="0" t="n">
+      <c r="D1095" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="8"/>
-      <c r="B1096" s="0" t="s">
+      <c r="A1096" s="4"/>
+      <c r="B1096" s="1" t="s">
         <v>2025</v>
       </c>
       <c r="C1096" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1096" s="0" t="n">
+      <c r="D1096" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20897,128 +20890,128 @@
       <c r="A1097" s="1" t="s">
         <v>2026</v>
       </c>
-      <c r="B1097" s="7" t="s">
+      <c r="B1097" s="5" t="s">
         <v>2027</v>
       </c>
       <c r="C1097" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="D1097" s="0" t="n">
+      <c r="D1097" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="2" t="s">
+      <c r="A1098" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="B1098" s="0" t="s">
+      <c r="B1098" s="1" t="s">
         <v>2030</v>
       </c>
       <c r="C1098" s="1" t="s">
         <v>2031</v>
       </c>
-      <c r="D1098" s="0" t="n">
+      <c r="D1098" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="2"/>
-      <c r="B1099" s="0" t="s">
+      <c r="A1099" s="4"/>
+      <c r="B1099" s="1" t="s">
         <v>2018</v>
       </c>
       <c r="C1099" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="D1099" s="0" t="n">
+      <c r="D1099" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="2"/>
-      <c r="B1100" s="0" t="s">
+      <c r="A1100" s="4"/>
+      <c r="B1100" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="C1100" s="1" t="s">
         <v>2033</v>
       </c>
-      <c r="D1100" s="0" t="n">
+      <c r="D1100" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="2" t="s">
+      <c r="A1101" s="4" t="s">
         <v>2034</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="C1101" s="0" t="s">
+      <c r="C1101" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="D1101" s="0" t="n">
+      <c r="D1101" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="2"/>
+      <c r="A1102" s="4"/>
       <c r="B1102" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="C1102" s="0" t="s">
+      <c r="C1102" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="D1102" s="0" t="n">
+      <c r="D1102" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1102" s="0" t="n">
+      <c r="E1102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="2"/>
+      <c r="A1103" s="4"/>
       <c r="B1103" s="1" t="s">
         <v>2039</v>
       </c>
-      <c r="C1103" s="0" t="s">
+      <c r="C1103" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="D1103" s="0" t="n">
+      <c r="D1103" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="2"/>
+      <c r="A1104" s="4"/>
       <c r="B1104" s="1" t="s">
         <v>2041</v>
       </c>
-      <c r="C1104" s="0" t="s">
+      <c r="C1104" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="D1104" s="0" t="n">
+      <c r="D1104" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="2"/>
+      <c r="A1105" s="4"/>
       <c r="B1105" s="1" t="s">
         <v>2043</v>
       </c>
-      <c r="C1105" s="0" t="s">
+      <c r="C1105" s="1" t="s">
         <v>2044</v>
       </c>
-      <c r="D1105" s="0" t="n">
+      <c r="D1105" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="2"/>
+      <c r="A1106" s="4"/>
       <c r="B1106" s="1" t="s">
         <v>2045</v>
       </c>
-      <c r="C1106" s="0" t="s">
+      <c r="C1106" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="D1106" s="0" t="n">
+      <c r="D1106" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21026,973 +21019,973 @@
       <c r="A1107" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="B1107" s="0" t="s">
+      <c r="B1107" s="1" t="s">
         <v>2048</v>
       </c>
       <c r="C1107" s="1" t="s">
         <v>2049</v>
       </c>
-      <c r="D1107" s="0" t="n">
+      <c r="D1107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1108" s="2" t="s">
+      <c r="A1108" s="4" t="s">
         <v>2050</v>
       </c>
-      <c r="B1108" s="0" t="s">
+      <c r="B1108" s="1" t="s">
         <v>2051</v>
       </c>
       <c r="C1108" s="1" t="s">
         <v>2052</v>
       </c>
-      <c r="D1108" s="0" t="n">
+      <c r="D1108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="2"/>
-      <c r="B1109" s="0" t="s">
+      <c r="A1109" s="4"/>
+      <c r="B1109" s="1" t="s">
         <v>2053</v>
       </c>
       <c r="C1109" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="D1109" s="0" t="n">
+      <c r="D1109" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="2" t="s">
+      <c r="A1110" s="4" t="s">
         <v>2055</v>
       </c>
-      <c r="B1110" s="7" t="s">
+      <c r="B1110" s="5" t="s">
         <v>2056</v>
       </c>
       <c r="C1110" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D1110" s="0" t="n">
+      <c r="D1110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="2"/>
-      <c r="B1111" s="7" t="s">
+      <c r="A1111" s="4"/>
+      <c r="B1111" s="5" t="s">
         <v>2057</v>
       </c>
       <c r="C1111" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="D1111" s="0" t="n">
+      <c r="D1111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="2"/>
-      <c r="B1112" s="7" t="s">
+      <c r="A1112" s="4"/>
+      <c r="B1112" s="5" t="s">
         <v>2059</v>
       </c>
       <c r="C1112" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="D1112" s="0" t="n">
+      <c r="D1112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="2" t="s">
+      <c r="A1113" s="4" t="s">
         <v>2061</v>
       </c>
-      <c r="B1113" s="0" t="s">
+      <c r="B1113" s="1" t="s">
         <v>2062</v>
       </c>
       <c r="C1113" s="1" t="s">
         <v>2063</v>
       </c>
-      <c r="D1113" s="0" t="n">
+      <c r="D1113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="2"/>
-      <c r="B1114" s="0" t="s">
+      <c r="A1114" s="4"/>
+      <c r="B1114" s="1" t="s">
         <v>2064</v>
       </c>
       <c r="C1114" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="D1114" s="0" t="n">
+      <c r="D1114" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="2"/>
-      <c r="B1115" s="0" t="s">
+      <c r="A1115" s="4"/>
+      <c r="B1115" s="1" t="s">
         <v>2065</v>
       </c>
       <c r="C1115" s="1" t="s">
         <v>2066</v>
       </c>
-      <c r="D1115" s="0" t="n">
+      <c r="D1115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="2"/>
-      <c r="B1116" s="0" t="s">
+      <c r="A1116" s="4"/>
+      <c r="B1116" s="1" t="s">
         <v>2067</v>
       </c>
       <c r="C1116" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D1116" s="0" t="n">
+      <c r="D1116" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1117" s="2"/>
-      <c r="B1117" s="0" t="s">
+      <c r="A1117" s="4"/>
+      <c r="B1117" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="C1117" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="D1117" s="0" t="n">
+      <c r="D1117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="2"/>
-      <c r="B1118" s="0" t="s">
+      <c r="A1118" s="4"/>
+      <c r="B1118" s="1" t="s">
         <v>2070</v>
       </c>
       <c r="C1118" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="D1118" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1118" s="0" t="n">
+      <c r="D1118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1118" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="2"/>
-      <c r="B1119" s="0" t="s">
+      <c r="A1119" s="4"/>
+      <c r="B1119" s="1" t="s">
         <v>2072</v>
       </c>
       <c r="C1119" s="1" t="s">
         <v>2073</v>
       </c>
-      <c r="D1119" s="0" t="n">
+      <c r="D1119" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="2"/>
-      <c r="B1120" s="0" t="s">
+      <c r="A1120" s="4"/>
+      <c r="B1120" s="1" t="s">
         <v>2074</v>
       </c>
       <c r="C1120" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="D1120" s="0" t="n">
+      <c r="D1120" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="2"/>
-      <c r="B1121" s="0" t="s">
+      <c r="A1121" s="4"/>
+      <c r="B1121" s="1" t="s">
         <v>2076</v>
       </c>
       <c r="C1121" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="D1121" s="0" t="n">
+      <c r="D1121" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="2"/>
-      <c r="B1122" s="0" t="s">
+      <c r="A1122" s="4"/>
+      <c r="B1122" s="1" t="s">
         <v>2077</v>
       </c>
       <c r="C1122" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="D1122" s="0" t="n">
+      <c r="D1122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="2"/>
-      <c r="B1123" s="0" t="s">
+      <c r="A1123" s="4"/>
+      <c r="B1123" s="1" t="s">
         <v>2079</v>
       </c>
       <c r="C1123" s="1" t="s">
         <v>2080</v>
       </c>
-      <c r="D1123" s="0" t="n">
+      <c r="D1123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1124" s="2" t="s">
+      <c r="A1124" s="4" t="s">
         <v>2081</v>
       </c>
-      <c r="B1124" s="0" t="s">
+      <c r="B1124" s="1" t="s">
         <v>2082</v>
       </c>
       <c r="C1124" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="D1124" s="0" t="n">
+      <c r="D1124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="2"/>
-      <c r="B1125" s="0" t="s">
+      <c r="A1125" s="4"/>
+      <c r="B1125" s="1" t="s">
         <v>2084</v>
       </c>
       <c r="C1125" s="1" t="s">
         <v>2085</v>
       </c>
-      <c r="D1125" s="0" t="n">
+      <c r="D1125" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="2"/>
-      <c r="B1126" s="0" t="s">
+      <c r="A1126" s="4"/>
+      <c r="B1126" s="1" t="s">
         <v>2086</v>
       </c>
       <c r="C1126" s="1" t="s">
         <v>2087</v>
       </c>
-      <c r="D1126" s="0" t="s">
+      <c r="D1126" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1126" s="0" t="n">
+      <c r="E1126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="2"/>
-      <c r="B1127" s="0" t="s">
+      <c r="A1127" s="4"/>
+      <c r="B1127" s="1" t="s">
         <v>2088</v>
       </c>
       <c r="C1127" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="D1127" s="0" t="s">
+      <c r="D1127" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1127" s="0" t="n">
+      <c r="E1127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="2"/>
-      <c r="B1128" s="0" t="s">
+      <c r="A1128" s="4"/>
+      <c r="B1128" s="1" t="s">
         <v>2090</v>
       </c>
       <c r="C1128" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="D1128" s="0" t="n">
+      <c r="D1128" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="2"/>
-      <c r="B1129" s="0" t="s">
+      <c r="A1129" s="4"/>
+      <c r="B1129" s="1" t="s">
         <v>2092</v>
       </c>
       <c r="C1129" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="D1129" s="0" t="n">
+      <c r="D1129" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1130" s="2"/>
-      <c r="B1130" s="0" t="s">
+      <c r="A1130" s="4"/>
+      <c r="B1130" s="1" t="s">
         <v>2094</v>
       </c>
       <c r="C1130" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="D1130" s="0" t="n">
+      <c r="D1130" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="2"/>
-      <c r="B1131" s="0" t="s">
+      <c r="A1131" s="4"/>
+      <c r="B1131" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="C1131" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="D1131" s="0" t="n">
+      <c r="D1131" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="2"/>
-      <c r="B1132" s="0" t="s">
+      <c r="A1132" s="4"/>
+      <c r="B1132" s="1" t="s">
         <v>2098</v>
       </c>
       <c r="C1132" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D1132" s="0" t="n">
+      <c r="D1132" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1133" s="2"/>
-      <c r="B1133" s="0" t="s">
+      <c r="A1133" s="4"/>
+      <c r="B1133" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="C1133" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="D1133" s="0" t="n">
+      <c r="D1133" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="2"/>
-      <c r="B1134" s="0" t="s">
+      <c r="A1134" s="4"/>
+      <c r="B1134" s="1" t="s">
         <v>2101</v>
       </c>
       <c r="C1134" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="D1134" s="0" t="n">
+      <c r="D1134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1135" s="2"/>
-      <c r="B1135" s="0" t="s">
+      <c r="A1135" s="4"/>
+      <c r="B1135" s="1" t="s">
         <v>2103</v>
       </c>
       <c r="C1135" s="1" t="s">
         <v>2104</v>
       </c>
-      <c r="D1135" s="0" t="s">
+      <c r="D1135" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1135" s="0" t="n">
+      <c r="E1135" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1136" s="2"/>
-      <c r="B1136" s="0" t="s">
+      <c r="A1136" s="4"/>
+      <c r="B1136" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="C1136" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="D1136" s="0" t="n">
+      <c r="D1136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="2"/>
-      <c r="B1137" s="0" t="s">
+      <c r="A1137" s="4"/>
+      <c r="B1137" s="1" t="s">
         <v>2107</v>
       </c>
       <c r="C1137" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="D1137" s="0" t="n">
+      <c r="D1137" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="2"/>
-      <c r="B1138" s="0" t="s">
+      <c r="A1138" s="4"/>
+      <c r="B1138" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="C1138" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="D1138" s="0" t="n">
+      <c r="D1138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="2"/>
-      <c r="B1139" s="0" t="s">
+      <c r="A1139" s="4"/>
+      <c r="B1139" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="C1139" s="1" t="s">
         <v>2112</v>
       </c>
-      <c r="D1139" s="0" t="n">
+      <c r="D1139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="2"/>
-      <c r="B1140" s="0" t="s">
+      <c r="A1140" s="4"/>
+      <c r="B1140" s="1" t="s">
         <v>2113</v>
       </c>
       <c r="C1140" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D1140" s="0" t="n">
+      <c r="D1140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1141" s="2" t="s">
+      <c r="A1141" s="4" t="s">
         <v>2114</v>
       </c>
-      <c r="B1141" s="0" t="s">
+      <c r="B1141" s="1" t="s">
         <v>2115</v>
       </c>
       <c r="C1141" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D1141" s="0" t="s">
+      <c r="D1141" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1141" s="0" t="n">
+      <c r="E1141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1142" s="2"/>
-      <c r="B1142" s="0" t="s">
+      <c r="A1142" s="4"/>
+      <c r="B1142" s="1" t="s">
         <v>2086</v>
       </c>
       <c r="C1142" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D1142" s="0" t="n">
+      <c r="D1142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1143" s="2"/>
-      <c r="B1143" s="0" t="s">
+      <c r="A1143" s="4"/>
+      <c r="B1143" s="1" t="s">
         <v>2116</v>
       </c>
       <c r="C1143" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="D1143" s="0" t="n">
+      <c r="D1143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1144" s="2"/>
-      <c r="B1144" s="0" t="s">
+      <c r="A1144" s="4"/>
+      <c r="B1144" s="1" t="s">
         <v>2118</v>
       </c>
       <c r="C1144" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="D1144" s="0" t="n">
+      <c r="D1144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1145" s="2"/>
-      <c r="B1145" s="0" t="s">
+      <c r="A1145" s="4"/>
+      <c r="B1145" s="1" t="s">
         <v>2119</v>
       </c>
       <c r="C1145" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D1145" s="0" t="n">
+      <c r="D1145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1146" s="2"/>
-      <c r="B1146" s="0" t="s">
+      <c r="A1146" s="4"/>
+      <c r="B1146" s="1" t="s">
         <v>2121</v>
       </c>
       <c r="C1146" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="D1146" s="0" t="n">
+      <c r="D1146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1147" s="2"/>
-      <c r="B1147" s="0" t="s">
+      <c r="A1147" s="4"/>
+      <c r="B1147" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="C1147" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="D1147" s="0" t="n">
+      <c r="D1147" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1148" s="2"/>
-      <c r="B1148" s="0" t="s">
+      <c r="A1148" s="4"/>
+      <c r="B1148" s="1" t="s">
         <v>2123</v>
       </c>
       <c r="C1148" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D1148" s="0" t="n">
+      <c r="D1148" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1149" s="2"/>
-      <c r="B1149" s="0" t="s">
+      <c r="A1149" s="4"/>
+      <c r="B1149" s="1" t="s">
         <v>2124</v>
       </c>
       <c r="C1149" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="D1149" s="0" t="n">
+      <c r="D1149" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1150" s="2"/>
-      <c r="B1150" s="0" t="s">
+      <c r="A1150" s="4"/>
+      <c r="B1150" s="1" t="s">
         <v>2126</v>
       </c>
       <c r="C1150" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="D1150" s="0" t="n">
+      <c r="D1150" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1151" s="2" t="s">
+      <c r="A1151" s="4" t="s">
         <v>2128</v>
       </c>
-      <c r="B1151" s="0" t="s">
+      <c r="B1151" s="1" t="s">
         <v>2129</v>
       </c>
       <c r="C1151" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="D1151" s="0" t="n">
+      <c r="D1151" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1152" s="2"/>
-      <c r="B1152" s="0" t="s">
+      <c r="A1152" s="4"/>
+      <c r="B1152" s="1" t="s">
         <v>2131</v>
       </c>
       <c r="C1152" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="D1152" s="0" t="n">
+      <c r="D1152" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1153" s="2"/>
-      <c r="B1153" s="0" t="s">
+      <c r="A1153" s="4"/>
+      <c r="B1153" s="1" t="s">
         <v>2132</v>
       </c>
       <c r="C1153" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="D1153" s="0" t="n">
+      <c r="D1153" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1154" s="2"/>
-      <c r="B1154" s="0" t="s">
+      <c r="A1154" s="4"/>
+      <c r="B1154" s="1" t="s">
         <v>2134</v>
       </c>
       <c r="C1154" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="D1154" s="0" t="n">
+      <c r="D1154" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1155" s="2"/>
-      <c r="B1155" s="0" t="s">
+      <c r="A1155" s="4"/>
+      <c r="B1155" s="1" t="s">
         <v>2136</v>
       </c>
       <c r="C1155" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="D1155" s="0" t="n">
+      <c r="D1155" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="2"/>
-      <c r="B1156" s="0" t="s">
+      <c r="A1156" s="4"/>
+      <c r="B1156" s="1" t="s">
         <v>2138</v>
       </c>
       <c r="C1156" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="D1156" s="0" t="n">
+      <c r="D1156" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1157" s="2"/>
-      <c r="B1157" s="0" t="s">
+      <c r="A1157" s="4"/>
+      <c r="B1157" s="1" t="s">
         <v>2140</v>
       </c>
       <c r="C1157" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="D1157" s="0" t="n">
+      <c r="D1157" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1158" s="2"/>
-      <c r="B1158" s="0" t="s">
+      <c r="A1158" s="4"/>
+      <c r="B1158" s="1" t="s">
         <v>2142</v>
       </c>
       <c r="C1158" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="D1158" s="0" t="n">
+      <c r="D1158" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1159" s="2"/>
-      <c r="B1159" s="0" t="s">
+      <c r="A1159" s="4"/>
+      <c r="B1159" s="1" t="s">
         <v>2144</v>
       </c>
       <c r="C1159" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="D1159" s="0" t="n">
+      <c r="D1159" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1160" s="2"/>
-      <c r="B1160" s="0" t="s">
+      <c r="A1160" s="4"/>
+      <c r="B1160" s="1" t="s">
         <v>2145</v>
       </c>
       <c r="C1160" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="D1160" s="0" t="s">
+      <c r="D1160" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1160" s="0" t="n">
+      <c r="E1160" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1161" s="2"/>
-      <c r="B1161" s="0" t="s">
+      <c r="A1161" s="4"/>
+      <c r="B1161" s="1" t="s">
         <v>2147</v>
       </c>
       <c r="C1161" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D1161" s="0" t="n">
+      <c r="D1161" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1162" s="2"/>
-      <c r="B1162" s="0" t="s">
+      <c r="A1162" s="4"/>
+      <c r="B1162" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="C1162" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D1162" s="0" t="n">
+      <c r="D1162" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1163" s="2"/>
-      <c r="B1163" s="0" t="s">
+      <c r="A1163" s="4"/>
+      <c r="B1163" s="1" t="s">
         <v>2149</v>
       </c>
       <c r="C1163" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="D1163" s="0" t="n">
+      <c r="D1163" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1164" s="2"/>
-      <c r="B1164" s="0" t="s">
+      <c r="A1164" s="4"/>
+      <c r="B1164" s="1" t="s">
         <v>2151</v>
       </c>
       <c r="C1164" s="1" t="s">
         <v>2112</v>
       </c>
-      <c r="D1164" s="0" t="n">
+      <c r="D1164" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1165" s="2"/>
-      <c r="B1165" s="0" t="s">
+      <c r="A1165" s="4"/>
+      <c r="B1165" s="1" t="s">
         <v>2152</v>
       </c>
       <c r="C1165" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D1165" s="0" t="n">
+      <c r="D1165" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1166" s="2"/>
-      <c r="B1166" s="0" t="s">
+      <c r="A1166" s="4"/>
+      <c r="B1166" s="1" t="s">
         <v>2153</v>
       </c>
       <c r="C1166" s="1" t="s">
         <v>2154</v>
       </c>
-      <c r="D1166" s="0" t="n">
+      <c r="D1166" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1167" s="2"/>
-      <c r="B1167" s="0" t="s">
+      <c r="A1167" s="4"/>
+      <c r="B1167" s="1" t="s">
         <v>2155</v>
       </c>
       <c r="C1167" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="D1167" s="0" t="n">
+      <c r="D1167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1168" s="2"/>
-      <c r="B1168" s="0" t="s">
+      <c r="A1168" s="4"/>
+      <c r="B1168" s="1" t="s">
         <v>2157</v>
       </c>
       <c r="C1168" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="D1168" s="0" t="n">
+      <c r="D1168" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1169" s="2"/>
-      <c r="B1169" s="0" t="s">
+      <c r="A1169" s="4"/>
+      <c r="B1169" s="1" t="s">
         <v>2159</v>
       </c>
       <c r="C1169" s="1" t="s">
         <v>2160</v>
       </c>
-      <c r="D1169" s="0" t="n">
+      <c r="D1169" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1170" s="2"/>
-      <c r="B1170" s="0" t="s">
+      <c r="A1170" s="4"/>
+      <c r="B1170" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1170" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="D1170" s="0" t="n">
+      <c r="D1170" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1171" s="2" t="s">
+      <c r="A1171" s="4" t="s">
         <v>2163</v>
       </c>
-      <c r="B1171" s="7" t="s">
+      <c r="B1171" s="5" t="s">
         <v>2164</v>
       </c>
       <c r="C1171" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D1171" s="0" t="n">
+      <c r="D1171" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1172" s="2"/>
-      <c r="B1172" s="7" t="s">
+      <c r="A1172" s="4"/>
+      <c r="B1172" s="5" t="s">
         <v>2056</v>
       </c>
       <c r="C1172" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="D1172" s="0" t="n">
+      <c r="D1172" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1173" s="2"/>
-      <c r="B1173" s="7" t="s">
+      <c r="A1173" s="4"/>
+      <c r="B1173" s="5" t="s">
         <v>2165</v>
       </c>
       <c r="C1173" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="D1173" s="0" t="n">
+      <c r="D1173" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1174" s="2"/>
-      <c r="B1174" s="7" t="s">
+      <c r="A1174" s="4"/>
+      <c r="B1174" s="5" t="s">
         <v>2167</v>
       </c>
       <c r="C1174" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D1174" s="0" t="n">
+      <c r="D1174" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1175" s="2"/>
-      <c r="B1175" s="7" t="s">
+      <c r="A1175" s="4"/>
+      <c r="B1175" s="5" t="s">
         <v>2168</v>
       </c>
       <c r="C1175" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="D1175" s="0" t="n">
+      <c r="D1175" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1176" s="2"/>
-      <c r="B1176" s="7" t="s">
+      <c r="A1176" s="4"/>
+      <c r="B1176" s="5" t="s">
         <v>2057</v>
       </c>
       <c r="C1176" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="D1176" s="0" t="n">
+      <c r="D1176" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1177" s="2"/>
-      <c r="B1177" s="7" t="s">
+      <c r="A1177" s="4"/>
+      <c r="B1177" s="5" t="s">
         <v>2059</v>
       </c>
       <c r="C1177" s="1" t="s">
         <v>2170</v>
       </c>
-      <c r="D1177" s="0" t="n">
+      <c r="D1177" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1178" s="2"/>
-      <c r="B1178" s="7" t="s">
+      <c r="A1178" s="4"/>
+      <c r="B1178" s="5" t="s">
         <v>2171</v>
       </c>
       <c r="C1178" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="D1178" s="0" t="n">
+      <c r="D1178" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1179" s="2"/>
-      <c r="B1179" s="7" t="s">
+      <c r="A1179" s="4"/>
+      <c r="B1179" s="5" t="s">
         <v>2173</v>
       </c>
       <c r="C1179" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D1179" s="0" t="n">
+      <c r="D1179" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1180" s="2"/>
-      <c r="B1180" s="7" t="s">
+      <c r="A1180" s="4"/>
+      <c r="B1180" s="5" t="s">
         <v>2174</v>
       </c>
       <c r="C1180" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D1180" s="0" t="n">
+      <c r="D1180" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1181" s="2" t="s">
+      <c r="A1181" s="4" t="s">
         <v>2175</v>
       </c>
-      <c r="B1181" s="0" t="s">
+      <c r="B1181" s="1" t="s">
         <v>2176</v>
       </c>
       <c r="C1181" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="D1181" s="0" t="n">
+      <c r="D1181" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1182" s="2"/>
-      <c r="B1182" s="0" t="s">
+      <c r="A1182" s="4"/>
+      <c r="B1182" s="1" t="s">
         <v>2178</v>
       </c>
       <c r="C1182" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D1182" s="0" t="n">
+      <c r="D1182" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1183" s="2" t="s">
+      <c r="A1183" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="B1183" s="0" t="s">
+      <c r="B1183" s="1" t="s">
         <v>2180</v>
       </c>
       <c r="C1183" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="D1183" s="0" t="n">
+      <c r="D1183" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1184" s="2"/>
-      <c r="B1184" s="0" t="s">
+      <c r="A1184" s="4"/>
+      <c r="B1184" s="1" t="s">
         <v>2182</v>
       </c>
       <c r="C1184" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="D1184" s="0" t="n">
+      <c r="D1184" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22000,297 +21993,297 @@
       <c r="A1185" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="B1185" s="0" t="s">
+      <c r="B1185" s="1" t="s">
         <v>2185</v>
       </c>
       <c r="C1185" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D1185" s="0" t="n">
+      <c r="D1185" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1186" s="2" t="s">
+      <c r="A1186" s="4" t="s">
         <v>2186</v>
       </c>
-      <c r="B1186" s="0" t="s">
+      <c r="B1186" s="1" t="s">
         <v>2187</v>
       </c>
       <c r="C1186" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="D1186" s="0" t="s">
+      <c r="D1186" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1186" s="0" t="n">
+      <c r="E1186" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1187" s="2"/>
-      <c r="B1187" s="0" t="s">
+      <c r="A1187" s="4"/>
+      <c r="B1187" s="1" t="s">
         <v>2189</v>
       </c>
       <c r="C1187" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="D1187" s="0" t="s">
+      <c r="D1187" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1187" s="0" t="n">
+      <c r="E1187" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1188" s="2"/>
-      <c r="B1188" s="0" t="s">
+      <c r="A1188" s="4"/>
+      <c r="B1188" s="1" t="s">
         <v>2191</v>
       </c>
       <c r="C1188" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="D1188" s="0" t="n">
+      <c r="D1188" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1189" s="2"/>
-      <c r="B1189" s="0" t="s">
+      <c r="A1189" s="4"/>
+      <c r="B1189" s="1" t="s">
         <v>2193</v>
       </c>
       <c r="C1189" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="D1189" s="0" t="n">
+      <c r="D1189" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1190" s="2"/>
-      <c r="B1190" s="0" t="s">
+      <c r="A1190" s="4"/>
+      <c r="B1190" s="1" t="s">
         <v>2195</v>
       </c>
       <c r="C1190" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="D1190" s="0" t="n">
+      <c r="D1190" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1191" s="2"/>
-      <c r="B1191" s="0" t="s">
+      <c r="A1191" s="4"/>
+      <c r="B1191" s="1" t="s">
         <v>2197</v>
       </c>
       <c r="C1191" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="D1191" s="0" t="n">
+      <c r="D1191" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1192" s="2"/>
-      <c r="B1192" s="0" t="s">
+      <c r="A1192" s="4"/>
+      <c r="B1192" s="1" t="s">
         <v>2199</v>
       </c>
       <c r="C1192" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="D1192" s="0" t="n">
+      <c r="D1192" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1193" s="2"/>
-      <c r="B1193" s="0" t="s">
+      <c r="A1193" s="4"/>
+      <c r="B1193" s="1" t="s">
         <v>2201</v>
       </c>
       <c r="C1193" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D1193" s="0" t="n">
+      <c r="D1193" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1194" s="2"/>
-      <c r="B1194" s="0" t="s">
+      <c r="A1194" s="4"/>
+      <c r="B1194" s="1" t="s">
         <v>2202</v>
       </c>
       <c r="C1194" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="D1194" s="0" t="n">
+      <c r="D1194" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1195" s="2"/>
-      <c r="B1195" s="0" t="s">
+      <c r="A1195" s="4"/>
+      <c r="B1195" s="1" t="s">
         <v>2204</v>
       </c>
       <c r="C1195" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="D1195" s="0" t="n">
+      <c r="D1195" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1196" s="2"/>
-      <c r="B1196" s="0" t="s">
+      <c r="A1196" s="4"/>
+      <c r="B1196" s="1" t="s">
         <v>2206</v>
       </c>
       <c r="C1196" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="D1196" s="0" t="n">
+      <c r="D1196" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1197" s="2"/>
-      <c r="B1197" s="0" t="s">
+      <c r="A1197" s="4"/>
+      <c r="B1197" s="1" t="s">
         <v>2208</v>
       </c>
       <c r="C1197" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D1197" s="0" t="n">
+      <c r="D1197" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1198" s="2"/>
-      <c r="B1198" s="0" t="s">
+      <c r="A1198" s="4"/>
+      <c r="B1198" s="1" t="s">
         <v>2209</v>
       </c>
       <c r="C1198" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="D1198" s="0" t="n">
+      <c r="D1198" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1199" s="2"/>
-      <c r="B1199" s="0" t="s">
+      <c r="A1199" s="4"/>
+      <c r="B1199" s="1" t="s">
         <v>2211</v>
       </c>
       <c r="C1199" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="D1199" s="0" t="n">
+      <c r="D1199" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1200" s="2"/>
-      <c r="B1200" s="0" t="s">
+      <c r="A1200" s="4"/>
+      <c r="B1200" s="1" t="s">
         <v>2212</v>
       </c>
       <c r="C1200" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="D1200" s="0" t="n">
+      <c r="D1200" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1201" s="2"/>
-      <c r="B1201" s="0" t="s">
+      <c r="A1201" s="4"/>
+      <c r="B1201" s="1" t="s">
         <v>2214</v>
       </c>
       <c r="C1201" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1201" s="0" t="n">
+      <c r="D1201" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1202" s="2"/>
-      <c r="B1202" s="0" t="s">
+      <c r="A1202" s="4"/>
+      <c r="B1202" s="1" t="s">
         <v>2215</v>
       </c>
       <c r="C1202" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="D1202" s="0" t="n">
+      <c r="D1202" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1203" s="2"/>
-      <c r="B1203" s="0" t="s">
+      <c r="A1203" s="4"/>
+      <c r="B1203" s="1" t="s">
         <v>2216</v>
       </c>
       <c r="C1203" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="D1203" s="0" t="n">
+      <c r="D1203" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1204" s="2"/>
-      <c r="B1204" s="0" t="s">
+      <c r="A1204" s="4"/>
+      <c r="B1204" s="1" t="s">
         <v>2217</v>
       </c>
       <c r="C1204" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="D1204" s="0" t="n">
+      <c r="D1204" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1205" s="2"/>
-      <c r="B1205" s="0" t="s">
+      <c r="A1205" s="4"/>
+      <c r="B1205" s="1" t="s">
         <v>2218</v>
       </c>
       <c r="C1205" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D1205" s="0" t="n">
+      <c r="D1205" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1206" s="2"/>
-      <c r="B1206" s="0" t="s">
+      <c r="A1206" s="4"/>
+      <c r="B1206" s="1" t="s">
         <v>2219</v>
       </c>
       <c r="C1206" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="D1206" s="0" t="n">
+      <c r="D1206" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1207" s="2"/>
-      <c r="B1207" s="0" t="s">
+      <c r="A1207" s="4"/>
+      <c r="B1207" s="1" t="s">
         <v>2220</v>
       </c>
       <c r="C1207" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D1207" s="0" t="n">
+      <c r="D1207" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1208" s="2"/>
-      <c r="B1208" s="0" t="s">
+      <c r="A1208" s="4"/>
+      <c r="B1208" s="1" t="s">
         <v>2221</v>
       </c>
       <c r="C1208" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D1208" s="0" t="n">
+      <c r="D1208" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22353,7 +22346,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22522,313 +22515,313 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="n">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7" t="n">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
